--- a/TCN半自动卡/tcn半自动人物卡v0.1.7.xlsx
+++ b/TCN半自动卡/tcn半自动人物卡v0.1.7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEST\Desktop\The Chaos Node\The-Chaos-Node\TCN半自动卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5339E798-2618-4539-A79F-118E87542053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073BC17-2BFD-42AB-8806-C3A52A4504C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B640269-A400-42CF-A7BF-7B37D2BC0D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6B640269-A400-42CF-A7BF-7B37D2BC0D05}"/>
   </bookViews>
   <sheets>
     <sheet name="人物卡" sheetId="1" r:id="rId1"/>
@@ -3039,6 +3039,216 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3048,14 +3258,164 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3066,71 +3426,106 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3142,410 +3537,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4318,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEBFC3E-8C7C-4660-AE7F-D6DC589AC1E2}">
   <dimension ref="B2:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4337,30 +4337,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="B2" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="176" t="s">
+      <c r="B2" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
       <c r="O2" s="70"/>
-      <c r="P2" s="174" t="s">
+      <c r="P2" s="216" t="s">
         <v>342</v>
       </c>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
@@ -4401,10 +4401,10 @@
       <c r="N3" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -4418,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="131">
+      <c r="F4" s="133">
         <f>SUM(H4:H8,L4:L7)</f>
         <v>0</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>149</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="240"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="5">
         <f>H4+I4</f>
         <v>0</v>
@@ -4435,15 +4435,15 @@
         <v>154</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="240"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="5">
         <f>L4+M4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
+      <c r="S4" s="216"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -4457,12 +4457,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="241"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="6">
         <f>H5+I5</f>
         <v>0</v>
@@ -4471,15 +4471,15 @@
         <v>155</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="241"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="6">
         <f t="shared" ref="N5:N8" si="0">L5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -4500,7 +4500,7 @@
         <v>152</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="240"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="5">
         <f>H6+I6</f>
         <v>0</v>
@@ -4509,15 +4509,15 @@
         <v>156</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="240"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
+      <c r="S6" s="216"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -4531,7 +4531,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="131">
+      <c r="F7" s="133">
         <f>SUM(J4:J8,N4:N7)</f>
         <v>0</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="241"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="6">
         <f>H7+I7</f>
         <v>0</v>
@@ -4548,32 +4548,32 @@
         <v>157</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="241"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="2:22" ht="15" thickBot="1">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="188" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="132"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="18" t="s">
         <v>429</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="242"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="18">
         <f>H8+I8</f>
         <v>0</v>
@@ -4585,143 +4585,143 @@
         <f>L6</f>
         <v>0</v>
       </c>
-      <c r="M8" s="242"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="174"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="206" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="166" t="s">
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="208" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="167">
+      <c r="J9" s="209">
         <f>5*EDU+3*INT</f>
         <v>0</v>
       </c>
-      <c r="K9" s="166" t="s">
+      <c r="K9" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="167">
+      <c r="L9" s="209">
         <f>SUM(人物卡!C15:C147,人物卡!E15:E147,人物卡!H15:H147,Q15:Q19)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="166" t="s">
+      <c r="M9" s="208" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="169">
+      <c r="N9" s="211">
         <f>J9-L9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="216"/>
+      <c r="S9" s="216"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="170"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="212"/>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="216"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="189" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="182"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="191"/>
+      <c r="P11" s="216"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="216"/>
+      <c r="S11" s="216"/>
       <c r="T11" s="16"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="2:22" ht="15" thickBot="1">
-      <c r="B12" s="183"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="185"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="194"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="N13" s="175" t="s">
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="215"/>
+      <c r="N13" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="217"/>
+      <c r="Q13" s="217"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -4739,10 +4739,10 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="102"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4761,34 +4761,34 @@
       <c r="N14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O14" s="143" t="s">
+      <c r="O14" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="P14" s="143"/>
+      <c r="P14" s="136"/>
       <c r="Q14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="143" t="s">
+      <c r="R14" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="S14" s="143"/>
+      <c r="S14" s="136"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="186"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -4801,32 +4801,32 @@
         <f>IF(N32="","",N32)</f>
         <v/>
       </c>
-      <c r="O15" s="144" t="str">
+      <c r="O15" s="120" t="str">
         <f>IF(R32="","",100-R32*10)</f>
         <v/>
       </c>
-      <c r="P15" s="144"/>
+      <c r="P15" s="120"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="144" t="str">
+      <c r="R15" s="120" t="str">
         <f>IF(O15="","",O15+Q15)</f>
         <v/>
       </c>
-      <c r="S15" s="144"/>
+      <c r="S15" s="120"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="120" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="101" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="102"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4839,30 +4839,30 @@
         <f t="shared" ref="N16:N19" si="1">IF(N33="","",N33)</f>
         <v/>
       </c>
-      <c r="O16" s="155" t="str">
+      <c r="O16" s="121" t="str">
         <f t="shared" ref="O16:O19" si="2">IF(R33="","",100-R33*10)</f>
         <v/>
       </c>
-      <c r="P16" s="155"/>
+      <c r="P16" s="121"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="155" t="str">
+      <c r="R16" s="121" t="str">
         <f t="shared" ref="R16:R19" si="3">IF(O16="","",O16+Q16)</f>
         <v/>
       </c>
-      <c r="S16" s="155"/>
+      <c r="S16" s="121"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="151" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="152"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -4875,32 +4875,32 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O17" s="144" t="str">
+      <c r="O17" s="120" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="144"/>
+      <c r="P17" s="120"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="144" t="str">
+      <c r="R17" s="120" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="144"/>
+      <c r="S17" s="120"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4913,32 +4913,32 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O18" s="155" t="str">
+      <c r="O18" s="121" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="155"/>
+      <c r="P18" s="121"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="155" t="str">
+      <c r="R18" s="121" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="155"/>
+      <c r="S18" s="121"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="229" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="189"/>
-      <c r="F19" s="151" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="152"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4951,27 +4951,27 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O19" s="144" t="str">
+      <c r="O19" s="120" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="144"/>
+      <c r="P19" s="120"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="144" t="str">
+      <c r="R19" s="120" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="144"/>
+      <c r="S19" s="120"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="191" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="192"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4982,14 +4982,14 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="151" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="152"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -4998,26 +4998,26 @@
         <v>0</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="N21" s="176" t="s">
+      <c r="N21" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="176"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -5029,27 +5029,27 @@
       <c r="N22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O22" s="143">
+      <c r="O22" s="136">
         <v>3</v>
       </c>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="143"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="136"/>
+      <c r="S22" s="136"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="189"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="141" t="s">
+      <c r="F23" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="142"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -5061,30 +5061,30 @@
       <c r="N23" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O23" s="144">
+      <c r="O23" s="120">
         <v>2</v>
       </c>
-      <c r="P23" s="144"/>
+      <c r="P23" s="120"/>
       <c r="Q23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R23" s="144">
+      <c r="R23" s="120">
         <f>O23-SUM(R25:S29)</f>
         <v>2</v>
       </c>
-      <c r="S23" s="144"/>
+      <c r="S23" s="120"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="102"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -5096,25 +5096,25 @@
       <c r="N24" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143" t="s">
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="S24" s="143"/>
+      <c r="S24" s="136"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="141" t="s">
+      <c r="F25" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -5126,23 +5126,23 @@
       <c r="N25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="102"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -5154,23 +5154,23 @@
       <c r="N26" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="190"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="137" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="141" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5182,21 +5182,21 @@
       <c r="N27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="191" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="192"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5208,21 +5208,21 @@
       <c r="N28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="143"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="151" t="s">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="152"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -5234,23 +5234,23 @@
       <c r="N29" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="120" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="101" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="102"/>
+      <c r="G30" s="82"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5259,22 +5259,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="143"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="136"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="149" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="150"/>
+      <c r="G31" s="233"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
@@ -5286,29 +5286,29 @@
       <c r="N31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O31" s="144" t="s">
+      <c r="O31" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="144" t="s">
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="S31" s="144"/>
+      <c r="S31" s="120"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="236" t="s">
+      <c r="B32" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="236"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="143" t="s">
+      <c r="F32" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="143"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5318,23 +5318,23 @@
       </c>
       <c r="L32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="104"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="132"/>
     </row>
     <row r="33" spans="2:22" ht="16.5">
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="140" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="144" t="s">
+      <c r="E33" s="229"/>
+      <c r="F33" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="144"/>
+      <c r="G33" s="120"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -5344,22 +5344,22 @@
       </c>
       <c r="L33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="106"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="237"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="103"/>
       <c r="U33" s="12"/>
     </row>
     <row r="34" spans="2:22" ht="16.5">
-      <c r="B34" s="236"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="145" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="143"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5369,22 +5369,22 @@
       </c>
       <c r="L34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="104"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="132"/>
       <c r="U34" s="12"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="236"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="146" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="146"/>
+      <c r="G35" s="231"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -5394,21 +5394,21 @@
       </c>
       <c r="L35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="106"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="237"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="103"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="236"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="143" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="143"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5418,21 +5418,21 @@
       </c>
       <c r="L36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="104"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="132"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="236"/>
-      <c r="C37" s="236"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="144" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="144"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -5443,14 +5443,14 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="236"/>
-      <c r="C38" s="236"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="145" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="230" t="s">
         <v>352</v>
       </c>
-      <c r="G38" s="143"/>
+      <c r="G38" s="136"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5459,26 +5459,26 @@
         <v>0</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="N38" s="117" t="s">
+      <c r="N38" s="234" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="119"/>
-      <c r="T38" s="153" t="s">
+      <c r="O38" s="235"/>
+      <c r="P38" s="235"/>
+      <c r="Q38" s="236"/>
+      <c r="T38" s="226" t="s">
         <v>190</v>
       </c>
-      <c r="U38" s="153"/>
+      <c r="U38" s="226"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="146" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="146"/>
+      <c r="G39" s="231"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -5493,11 +5493,11 @@
       <c r="O39" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="P39" s="154">
+      <c r="P39" s="227">
         <f>IF(H6&lt;100,INT((J5+H6)/10),INT(CON/10)+ROUND(SQRT(H6),0))</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="154"/>
+      <c r="Q39" s="227"/>
       <c r="T39" s="39" t="s">
         <v>163</v>
       </c>
@@ -5506,14 +5506,14 @@
       </c>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="147" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="148"/>
+      <c r="G40" s="221"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5528,23 +5528,23 @@
       <c r="O40" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="P40" s="108">
+      <c r="P40" s="238">
         <f>N6/5</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="108"/>
+      <c r="Q40" s="238"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="236"/>
-      <c r="C41" s="236"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="60"/>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="106"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -5560,22 +5560,22 @@
         <f>IF(Build="请查表","",IF(Build&lt;3,IF(AND(J7&lt;J6,J4&lt;J6),7,IF(AND(J7&gt;J6,J4&gt;J6),9,8)),IF(AND(J7&lt;J6,J4&lt;J6),7,IF(AND(J7&gt;J6,J4&gt;J6),Build*2+5,Build+6))))</f>
         <v/>
       </c>
-      <c r="P41" s="115" t="s">
+      <c r="P41" s="240" t="s">
         <v>210</v>
       </c>
-      <c r="Q41" s="115"/>
+      <c r="Q41" s="240"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="223" t="s">
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="223"/>
-      <c r="F42" s="103" t="s">
+      <c r="E42" s="104"/>
+      <c r="F42" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="104"/>
+      <c r="G42" s="132"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5587,22 +5587,22 @@
       <c r="N42" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="O42" s="108" t="str">
+      <c r="O42" s="238" t="str">
         <f>IF(Build="请查表","请查表",IF(Build&lt;4,LOOKUP(Build,附表!G3:G9,附表!F3:F9),Build-1&amp;"d6"))</f>
         <v>请查表</v>
       </c>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
+      <c r="P42" s="238"/>
+      <c r="Q42" s="238"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="236"/>
-      <c r="C43" s="236"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="105" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="106"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -5614,22 +5614,22 @@
       <c r="N43" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="O43" s="109" t="str">
+      <c r="O43" s="239" t="str">
         <f>IF(SUM(STR,SIZ)&lt;1,"请查表",IF(AND(1&lt;SUM(J4,J6),SUM(J4,J6)&lt;65),-2,IF(AND(64&lt;SUM(J4,J6),SUM(J4,J6)&lt;85),-1,IF(AND(84&lt;SUM(J4,J6),SUM(J4,J6)&lt;125),0,IF(AND(124&lt;SUM(J4,J6),SUM(J4,J6)&lt;165),1,IF(AND(164&lt;SUM(J4,J6),SUM(J4,J6)&lt;205),2,IF(AND(204&lt;SUM(J4,J6),SUM(J4,J6)&lt;285),3,IF(AND(284&lt;SUM(J4,J6),SUM(J4,J6)&lt;399),4,INT(3+0.1*SQRT(SUM(STR,SIZ)))))))))))</f>
         <v>请查表</v>
       </c>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
+      <c r="P43" s="239"/>
+      <c r="Q43" s="239"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="236"/>
-      <c r="C44" s="236"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="105" t="s">
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="G44" s="106"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -5641,22 +5641,22 @@
       <c r="N44" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="O44" s="108" t="str">
+      <c r="O44" s="238" t="str">
         <f>IF(SUM(STR,DEX)&lt;1,"请查表",IF(AND(1&lt;SUM(STR,DEX),SUM(J4,J7)&lt;65),-2,IF(AND(64&lt;SUM(J4,J7),SUM(J4,J7)&lt;85),-1,IF(AND(84&lt;SUM(J4,J7),SUM(J4,J7)&lt;125),0,IF(AND(124&lt;SUM(J4,J7),SUM(J4,J7)&lt;165),1,IF(AND(164&lt;SUM(J4,J7),SUM(J4,J7)&lt;205),2,IF(AND(204&lt;SUM(J4,J7),SUM(J4,J7)&lt;285),3,IF(AND(284&lt;SUM(J4,J7),SUM(J4,J7)&lt;399),4,INT(3+0.1*SQRT(SUM(STR,DEX)))))))))))</f>
         <v>请查表</v>
       </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
+      <c r="P44" s="238"/>
+      <c r="Q44" s="238"/>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="236"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="147" t="s">
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="148"/>
+      <c r="G45" s="221"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5679,16 +5679,16 @@
       </c>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="61" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="60"/>
-      <c r="F46" s="105" t="s">
+      <c r="F46" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="106"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5700,23 +5700,23 @@
       <c r="N46" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="O46" s="193" t="s">
+      <c r="O46" s="205" t="s">
         <v>163</v>
       </c>
-      <c r="P46" s="193"/>
+      <c r="P46" s="205"/>
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="236"/>
-      <c r="C47" s="236"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="62" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="50"/>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="104"/>
+      <c r="G47" s="132"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5727,16 +5727,16 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="236"/>
-      <c r="C48" s="236"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="61" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="60"/>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="106"/>
+      <c r="G48" s="103"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5745,29 +5745,29 @@
         <v>0</v>
       </c>
       <c r="L48" s="6"/>
-      <c r="N48" s="112" t="s">
+      <c r="N48" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="114"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="151"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="236"/>
-      <c r="C49" s="236"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="62" t="s">
         <v>54</v>
       </c>
       <c r="E49" s="50"/>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="104"/>
+      <c r="G49" s="132"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5791,24 +5791,24 @@
       <c r="R49" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S49" s="82" t="s">
+      <c r="S49" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="84"/>
+      <c r="T49" s="203"/>
+      <c r="U49" s="203"/>
+      <c r="V49" s="204"/>
     </row>
     <row r="50" spans="2:22">
-      <c r="B50" s="236"/>
-      <c r="C50" s="236"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="63" t="s">
         <v>303</v>
       </c>
       <c r="E50" s="59"/>
-      <c r="F50" s="158" t="s">
+      <c r="F50" s="222" t="s">
         <v>303</v>
       </c>
-      <c r="G50" s="159"/>
+      <c r="G50" s="223"/>
       <c r="H50" s="64"/>
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
@@ -5822,24 +5822,24 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="79"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="81"/>
+      <c r="S50" s="143"/>
+      <c r="T50" s="144"/>
+      <c r="U50" s="144"/>
+      <c r="V50" s="145"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="190" t="s">
+      <c r="B51" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="190"/>
+      <c r="C51" s="86"/>
       <c r="D51" s="55" t="s">
         <v>317</v>
       </c>
       <c r="E51" s="55"/>
-      <c r="F51" s="160" t="s">
+      <c r="F51" s="224" t="s">
         <v>317</v>
       </c>
-      <c r="G51" s="161"/>
+      <c r="G51" s="225"/>
       <c r="H51" s="58"/>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -5853,22 +5853,22 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
-      <c r="V51" s="84"/>
+      <c r="S51" s="202"/>
+      <c r="T51" s="203"/>
+      <c r="U51" s="203"/>
+      <c r="V51" s="204"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="190"/>
-      <c r="C52" s="190"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="22"/>
-      <c r="F52" s="135" t="s">
+      <c r="F52" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="136"/>
+      <c r="G52" s="113"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -5882,22 +5882,22 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="81"/>
+      <c r="S52" s="143"/>
+      <c r="T52" s="144"/>
+      <c r="U52" s="144"/>
+      <c r="V52" s="145"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="190"/>
-      <c r="C53" s="190"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="23"/>
-      <c r="F53" s="97" t="s">
+      <c r="F53" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="98"/>
+      <c r="G53" s="115"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5911,22 +5911,22 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="84"/>
+      <c r="S53" s="202"/>
+      <c r="T53" s="203"/>
+      <c r="U53" s="203"/>
+      <c r="V53" s="204"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="137" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="123"/>
-      <c r="F54" s="110" t="s">
+      <c r="E54" s="93"/>
+      <c r="F54" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="111"/>
+      <c r="G54" s="107"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -5940,20 +5940,20 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="81"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="144"/>
+      <c r="U54" s="144"/>
+      <c r="V54" s="145"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="190"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="133" t="s">
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="G55" s="134"/>
+      <c r="G55" s="130"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5967,22 +5967,22 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="84"/>
+      <c r="S55" s="202"/>
+      <c r="T55" s="203"/>
+      <c r="U55" s="203"/>
+      <c r="V55" s="204"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="190"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="120" t="s">
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="120"/>
-      <c r="F56" s="135" t="s">
+      <c r="E56" s="95"/>
+      <c r="F56" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="136"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -5996,20 +5996,20 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="81"/>
+      <c r="S56" s="143"/>
+      <c r="T56" s="144"/>
+      <c r="U56" s="144"/>
+      <c r="V56" s="145"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="190"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="101" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="102"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -6023,20 +6023,20 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="83"/>
-      <c r="U57" s="83"/>
-      <c r="V57" s="84"/>
+      <c r="S57" s="202"/>
+      <c r="T57" s="203"/>
+      <c r="U57" s="203"/>
+      <c r="V57" s="204"/>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="190"/>
-      <c r="C58" s="190"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="99" t="s">
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="100"/>
+      <c r="G58" s="117"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -6050,20 +6050,20 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="81"/>
+      <c r="S58" s="143"/>
+      <c r="T58" s="144"/>
+      <c r="U58" s="144"/>
+      <c r="V58" s="145"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="190"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="101" t="s">
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="102"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -6077,20 +6077,20 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="84"/>
+      <c r="S59" s="202"/>
+      <c r="T59" s="203"/>
+      <c r="U59" s="203"/>
+      <c r="V59" s="204"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="190"/>
-      <c r="C60" s="190"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="99" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="100"/>
+      <c r="G60" s="117"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
@@ -6104,20 +6104,20 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="81"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="144"/>
+      <c r="U60" s="144"/>
+      <c r="V60" s="145"/>
     </row>
     <row r="61" spans="2:22">
-      <c r="B61" s="190"/>
-      <c r="C61" s="190"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="101" t="s">
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="102"/>
+      <c r="G61" s="82"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -6131,20 +6131,20 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="83"/>
-      <c r="U61" s="83"/>
-      <c r="V61" s="84"/>
+      <c r="S61" s="202"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="204"/>
     </row>
     <row r="62" spans="2:22">
-      <c r="B62" s="190"/>
-      <c r="C62" s="190"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="99" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="100"/>
+      <c r="G62" s="117"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -6158,20 +6158,20 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="79"/>
-      <c r="T62" s="80"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="81"/>
+      <c r="S62" s="143"/>
+      <c r="T62" s="144"/>
+      <c r="U62" s="144"/>
+      <c r="V62" s="145"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="190"/>
-      <c r="C63" s="190"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="101" t="s">
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="102"/>
+      <c r="G63" s="82"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -6185,20 +6185,20 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
-      <c r="S63" s="82"/>
-      <c r="T63" s="83"/>
-      <c r="U63" s="83"/>
-      <c r="V63" s="84"/>
+      <c r="S63" s="202"/>
+      <c r="T63" s="203"/>
+      <c r="U63" s="203"/>
+      <c r="V63" s="204"/>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="190"/>
-      <c r="C64" s="190"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="177" t="s">
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="178"/>
+      <c r="G64" s="119"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
@@ -6212,22 +6212,22 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="79"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="81"/>
+      <c r="S64" s="143"/>
+      <c r="T64" s="144"/>
+      <c r="U64" s="144"/>
+      <c r="V64" s="145"/>
     </row>
     <row r="65" spans="2:22">
-      <c r="B65" s="190"/>
-      <c r="C65" s="190"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
       <c r="D65" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E65" s="22"/>
-      <c r="F65" s="101" t="s">
+      <c r="F65" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="102"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -6241,22 +6241,22 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
-      <c r="S65" s="82"/>
-      <c r="T65" s="83"/>
-      <c r="U65" s="83"/>
-      <c r="V65" s="84"/>
+      <c r="S65" s="202"/>
+      <c r="T65" s="203"/>
+      <c r="U65" s="203"/>
+      <c r="V65" s="204"/>
     </row>
     <row r="66" spans="2:22">
-      <c r="B66" s="190"/>
-      <c r="C66" s="190"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="23"/>
-      <c r="F66" s="99" t="s">
+      <c r="F66" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="100"/>
+      <c r="G66" s="117"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
@@ -6270,22 +6270,22 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="79"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="81"/>
+      <c r="S66" s="143"/>
+      <c r="T66" s="144"/>
+      <c r="U66" s="144"/>
+      <c r="V66" s="145"/>
     </row>
     <row r="67" spans="2:22">
-      <c r="B67" s="190"/>
-      <c r="C67" s="190"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
       <c r="D67" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E67" s="22"/>
-      <c r="F67" s="101" t="s">
+      <c r="F67" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="G67" s="102"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -6299,22 +6299,22 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="83"/>
-      <c r="U67" s="83"/>
-      <c r="V67" s="84"/>
+      <c r="S67" s="202"/>
+      <c r="T67" s="203"/>
+      <c r="U67" s="203"/>
+      <c r="V67" s="204"/>
     </row>
     <row r="68" spans="2:22">
-      <c r="B68" s="190"/>
-      <c r="C68" s="190"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
       <c r="D68" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="135" t="s">
+      <c r="F68" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="136"/>
+      <c r="G68" s="113"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -6328,22 +6328,22 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="79"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="81"/>
+      <c r="S68" s="143"/>
+      <c r="T68" s="144"/>
+      <c r="U68" s="144"/>
+      <c r="V68" s="145"/>
     </row>
     <row r="69" spans="2:22">
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
       <c r="D69" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="37"/>
-      <c r="F69" s="97" t="s">
+      <c r="F69" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="98"/>
+      <c r="G69" s="115"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6357,24 +6357,24 @@
       <c r="P69" s="25"/>
       <c r="Q69" s="25"/>
       <c r="R69" s="25"/>
-      <c r="S69" s="82"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="83"/>
-      <c r="V69" s="84"/>
+      <c r="S69" s="202"/>
+      <c r="T69" s="203"/>
+      <c r="U69" s="203"/>
+      <c r="V69" s="204"/>
     </row>
     <row r="70" spans="2:22">
-      <c r="B70" s="123" t="s">
+      <c r="B70" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="C70" s="123"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="135" t="s">
+      <c r="F70" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="136"/>
+      <c r="G70" s="113"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -6388,22 +6388,22 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="80"/>
-      <c r="U70" s="80"/>
-      <c r="V70" s="81"/>
+      <c r="S70" s="143"/>
+      <c r="T70" s="144"/>
+      <c r="U70" s="144"/>
+      <c r="V70" s="145"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="B71" s="237"/>
-      <c r="C71" s="237"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
       <c r="D71" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E71" s="37"/>
-      <c r="F71" s="97" t="s">
+      <c r="F71" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="98"/>
+      <c r="G71" s="115"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6417,22 +6417,22 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="83"/>
-      <c r="U71" s="83"/>
-      <c r="V71" s="84"/>
+      <c r="S71" s="202"/>
+      <c r="T71" s="203"/>
+      <c r="U71" s="203"/>
+      <c r="V71" s="204"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="B72" s="237"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="233" t="s">
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="120"/>
-      <c r="F72" s="110" t="s">
+      <c r="E72" s="95"/>
+      <c r="F72" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="111"/>
+      <c r="G72" s="107"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -6446,20 +6446,20 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="79"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="81"/>
+      <c r="S72" s="143"/>
+      <c r="T72" s="144"/>
+      <c r="U72" s="144"/>
+      <c r="V72" s="145"/>
     </row>
     <row r="73" spans="2:22">
-      <c r="B73" s="237"/>
-      <c r="C73" s="237"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="121"/>
-      <c r="F73" s="133" t="s">
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="134"/>
+      <c r="G73" s="130"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6470,14 +6470,14 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="2:22">
-      <c r="B74" s="237"/>
-      <c r="C74" s="237"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="110" t="s">
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="111"/>
+      <c r="G74" s="107"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -6499,14 +6499,14 @@
       <c r="V74" s="28"/>
     </row>
     <row r="75" spans="2:22">
-      <c r="B75" s="237"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="234"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="133" t="s">
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="134"/>
+      <c r="G75" s="130"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6515,27 +6515,27 @@
         <v>0</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="N75" s="131" t="s">
+      <c r="N75" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O75" s="91"/>
-      <c r="P75" s="92"/>
-      <c r="Q75" s="92"/>
-      <c r="R75" s="92"/>
-      <c r="S75" s="92"/>
-      <c r="T75" s="92"/>
-      <c r="U75" s="92"/>
-      <c r="V75" s="93"/>
+      <c r="O75" s="196"/>
+      <c r="P75" s="197"/>
+      <c r="Q75" s="197"/>
+      <c r="R75" s="197"/>
+      <c r="S75" s="197"/>
+      <c r="T75" s="197"/>
+      <c r="U75" s="197"/>
+      <c r="V75" s="198"/>
     </row>
     <row r="76" spans="2:22">
-      <c r="B76" s="237"/>
-      <c r="C76" s="237"/>
-      <c r="D76" s="234"/>
-      <c r="E76" s="121"/>
-      <c r="F76" s="110" t="s">
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="111"/>
+      <c r="G76" s="107"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -6544,25 +6544,25 @@
         <v>0</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="94"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="95"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="96"/>
+      <c r="N76" s="134"/>
+      <c r="O76" s="199"/>
+      <c r="P76" s="200"/>
+      <c r="Q76" s="200"/>
+      <c r="R76" s="200"/>
+      <c r="S76" s="200"/>
+      <c r="T76" s="200"/>
+      <c r="U76" s="200"/>
+      <c r="V76" s="201"/>
     </row>
     <row r="77" spans="2:22">
-      <c r="B77" s="237"/>
-      <c r="C77" s="237"/>
-      <c r="D77" s="234"/>
-      <c r="E77" s="121"/>
-      <c r="F77" s="125" t="s">
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="G77" s="126"/>
+      <c r="G77" s="109"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6571,27 +6571,27 @@
         <v>0</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="N77" s="129" t="s">
+      <c r="N77" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="O77" s="85"/>
-      <c r="P77" s="86"/>
-      <c r="Q77" s="86"/>
-      <c r="R77" s="86"/>
-      <c r="S77" s="86"/>
-      <c r="T77" s="86"/>
-      <c r="U77" s="86"/>
-      <c r="V77" s="87"/>
+      <c r="O77" s="152"/>
+      <c r="P77" s="153"/>
+      <c r="Q77" s="153"/>
+      <c r="R77" s="153"/>
+      <c r="S77" s="153"/>
+      <c r="T77" s="153"/>
+      <c r="U77" s="153"/>
+      <c r="V77" s="154"/>
     </row>
     <row r="78" spans="2:22">
-      <c r="B78" s="237"/>
-      <c r="C78" s="237"/>
-      <c r="D78" s="234"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="127" t="s">
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="G78" s="128"/>
+      <c r="G78" s="111"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -6600,25 +6600,25 @@
         <v>0</v>
       </c>
       <c r="L78" s="3"/>
-      <c r="N78" s="130"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="89"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
-      <c r="T78" s="89"/>
-      <c r="U78" s="89"/>
-      <c r="V78" s="90"/>
+      <c r="N78" s="138"/>
+      <c r="O78" s="155"/>
+      <c r="P78" s="156"/>
+      <c r="Q78" s="156"/>
+      <c r="R78" s="156"/>
+      <c r="S78" s="156"/>
+      <c r="T78" s="156"/>
+      <c r="U78" s="156"/>
+      <c r="V78" s="157"/>
     </row>
     <row r="79" spans="2:22">
-      <c r="B79" s="237"/>
-      <c r="C79" s="237"/>
-      <c r="D79" s="234"/>
-      <c r="E79" s="121"/>
-      <c r="F79" s="125" t="s">
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="G79" s="126"/>
+      <c r="G79" s="109"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6627,27 +6627,27 @@
         <v>0</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="N79" s="131" t="s">
+      <c r="N79" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="O79" s="91"/>
-      <c r="P79" s="92"/>
-      <c r="Q79" s="92"/>
-      <c r="R79" s="92"/>
-      <c r="S79" s="92"/>
-      <c r="T79" s="92"/>
-      <c r="U79" s="92"/>
-      <c r="V79" s="93"/>
+      <c r="O79" s="196"/>
+      <c r="P79" s="197"/>
+      <c r="Q79" s="197"/>
+      <c r="R79" s="197"/>
+      <c r="S79" s="197"/>
+      <c r="T79" s="197"/>
+      <c r="U79" s="197"/>
+      <c r="V79" s="198"/>
     </row>
     <row r="80" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B80" s="237"/>
-      <c r="C80" s="237"/>
-      <c r="D80" s="234"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="127" t="s">
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="G80" s="128"/>
+      <c r="G80" s="111"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -6656,25 +6656,25 @@
         <v>0</v>
       </c>
       <c r="L80" s="3"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="94"/>
-      <c r="P80" s="95"/>
-      <c r="Q80" s="95"/>
-      <c r="R80" s="95"/>
-      <c r="S80" s="95"/>
-      <c r="T80" s="95"/>
-      <c r="U80" s="95"/>
-      <c r="V80" s="96"/>
+      <c r="N80" s="134"/>
+      <c r="O80" s="199"/>
+      <c r="P80" s="200"/>
+      <c r="Q80" s="200"/>
+      <c r="R80" s="200"/>
+      <c r="S80" s="200"/>
+      <c r="T80" s="200"/>
+      <c r="U80" s="200"/>
+      <c r="V80" s="201"/>
     </row>
     <row r="81" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B81" s="237"/>
-      <c r="C81" s="237"/>
-      <c r="D81" s="235"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="133" t="s">
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="134"/>
+      <c r="G81" s="130"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6683,29 +6683,29 @@
         <v>0</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="N81" s="129" t="s">
+      <c r="N81" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="O81" s="85"/>
-      <c r="P81" s="86"/>
-      <c r="Q81" s="86"/>
-      <c r="R81" s="86"/>
-      <c r="S81" s="86"/>
-      <c r="T81" s="86"/>
-      <c r="U81" s="86"/>
-      <c r="V81" s="87"/>
+      <c r="O81" s="152"/>
+      <c r="P81" s="153"/>
+      <c r="Q81" s="153"/>
+      <c r="R81" s="153"/>
+      <c r="S81" s="153"/>
+      <c r="T81" s="153"/>
+      <c r="U81" s="153"/>
+      <c r="V81" s="154"/>
     </row>
     <row r="82" spans="2:22">
-      <c r="B82" s="237"/>
-      <c r="C82" s="237"/>
-      <c r="D82" s="123" t="s">
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="123"/>
-      <c r="F82" s="135" t="s">
+      <c r="E82" s="93"/>
+      <c r="F82" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="136"/>
+      <c r="G82" s="113"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -6714,25 +6714,25 @@
         <v>0</v>
       </c>
       <c r="L82" s="3"/>
-      <c r="N82" s="130"/>
-      <c r="O82" s="88"/>
-      <c r="P82" s="89"/>
-      <c r="Q82" s="89"/>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="89"/>
-      <c r="V82" s="90"/>
+      <c r="N82" s="138"/>
+      <c r="O82" s="155"/>
+      <c r="P82" s="156"/>
+      <c r="Q82" s="156"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="156"/>
+      <c r="T82" s="156"/>
+      <c r="U82" s="156"/>
+      <c r="V82" s="157"/>
     </row>
     <row r="83" spans="2:22">
-      <c r="B83" s="237"/>
-      <c r="C83" s="237"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="133" t="s">
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="134"/>
+      <c r="G83" s="130"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6741,29 +6741,29 @@
         <v>0</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="N83" s="131" t="s">
+      <c r="N83" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="O83" s="91"/>
-      <c r="P83" s="92"/>
-      <c r="Q83" s="92"/>
-      <c r="R83" s="92"/>
-      <c r="S83" s="92"/>
-      <c r="T83" s="92"/>
-      <c r="U83" s="92"/>
-      <c r="V83" s="93"/>
+      <c r="O83" s="196"/>
+      <c r="P83" s="197"/>
+      <c r="Q83" s="197"/>
+      <c r="R83" s="197"/>
+      <c r="S83" s="197"/>
+      <c r="T83" s="197"/>
+      <c r="U83" s="197"/>
+      <c r="V83" s="198"/>
     </row>
     <row r="84" spans="2:22">
-      <c r="B84" s="237"/>
-      <c r="C84" s="237"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E84" s="19"/>
-      <c r="F84" s="135" t="s">
+      <c r="F84" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="136"/>
+      <c r="G84" s="113"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -6772,27 +6772,27 @@
         <v>0</v>
       </c>
       <c r="L84" s="3"/>
-      <c r="N84" s="132"/>
-      <c r="O84" s="94"/>
-      <c r="P84" s="95"/>
-      <c r="Q84" s="95"/>
-      <c r="R84" s="95"/>
-      <c r="S84" s="95"/>
-      <c r="T84" s="95"/>
-      <c r="U84" s="95"/>
-      <c r="V84" s="96"/>
+      <c r="N84" s="134"/>
+      <c r="O84" s="199"/>
+      <c r="P84" s="200"/>
+      <c r="Q84" s="200"/>
+      <c r="R84" s="200"/>
+      <c r="S84" s="200"/>
+      <c r="T84" s="200"/>
+      <c r="U84" s="200"/>
+      <c r="V84" s="201"/>
     </row>
     <row r="85" spans="2:22">
-      <c r="B85" s="237"/>
-      <c r="C85" s="237"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="36" t="s">
         <v>318</v>
       </c>
       <c r="E85" s="37"/>
-      <c r="F85" s="97" t="s">
+      <c r="F85" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="G85" s="98"/>
+      <c r="G85" s="115"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6801,29 +6801,29 @@
         <v>0</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="N85" s="129" t="s">
+      <c r="N85" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="O85" s="85"/>
-      <c r="P85" s="86"/>
-      <c r="Q85" s="86"/>
-      <c r="R85" s="86"/>
-      <c r="S85" s="86"/>
-      <c r="T85" s="86"/>
-      <c r="U85" s="86"/>
-      <c r="V85" s="87"/>
+      <c r="O85" s="152"/>
+      <c r="P85" s="153"/>
+      <c r="Q85" s="153"/>
+      <c r="R85" s="153"/>
+      <c r="S85" s="153"/>
+      <c r="T85" s="153"/>
+      <c r="U85" s="153"/>
+      <c r="V85" s="154"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="237"/>
-      <c r="C86" s="237"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
       <c r="D86" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E86" s="19"/>
-      <c r="F86" s="135" t="s">
+      <c r="F86" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="G86" s="136"/>
+      <c r="G86" s="113"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -6832,27 +6832,27 @@
         <v>0</v>
       </c>
       <c r="L86" s="3"/>
-      <c r="N86" s="130"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="89"/>
-      <c r="Q86" s="89"/>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="89"/>
-      <c r="U86" s="89"/>
-      <c r="V86" s="90"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="155"/>
+      <c r="P86" s="156"/>
+      <c r="Q86" s="156"/>
+      <c r="R86" s="156"/>
+      <c r="S86" s="156"/>
+      <c r="T86" s="156"/>
+      <c r="U86" s="156"/>
+      <c r="V86" s="157"/>
     </row>
     <row r="87" spans="2:22">
-      <c r="B87" s="237"/>
-      <c r="C87" s="237"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
       <c r="D87" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E87" s="37"/>
-      <c r="F87" s="97" t="s">
+      <c r="F87" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="98"/>
+      <c r="G87" s="115"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6861,29 +6861,29 @@
         <v>0</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="N87" s="131" t="s">
+      <c r="N87" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="O87" s="91"/>
-      <c r="P87" s="92"/>
-      <c r="Q87" s="92"/>
-      <c r="R87" s="92"/>
-      <c r="S87" s="92"/>
-      <c r="T87" s="92"/>
-      <c r="U87" s="92"/>
-      <c r="V87" s="93"/>
+      <c r="O87" s="196"/>
+      <c r="P87" s="197"/>
+      <c r="Q87" s="197"/>
+      <c r="R87" s="197"/>
+      <c r="S87" s="197"/>
+      <c r="T87" s="197"/>
+      <c r="U87" s="197"/>
+      <c r="V87" s="198"/>
     </row>
     <row r="88" spans="2:22">
-      <c r="B88" s="237"/>
-      <c r="C88" s="237"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
       <c r="D88" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="135" t="s">
+      <c r="F88" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="136"/>
+      <c r="G88" s="113"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -6892,27 +6892,27 @@
         <v>0</v>
       </c>
       <c r="L88" s="3"/>
-      <c r="N88" s="132"/>
-      <c r="O88" s="94"/>
-      <c r="P88" s="95"/>
-      <c r="Q88" s="95"/>
-      <c r="R88" s="95"/>
-      <c r="S88" s="95"/>
-      <c r="T88" s="95"/>
-      <c r="U88" s="95"/>
-      <c r="V88" s="96"/>
+      <c r="N88" s="134"/>
+      <c r="O88" s="199"/>
+      <c r="P88" s="200"/>
+      <c r="Q88" s="200"/>
+      <c r="R88" s="200"/>
+      <c r="S88" s="200"/>
+      <c r="T88" s="200"/>
+      <c r="U88" s="200"/>
+      <c r="V88" s="201"/>
     </row>
     <row r="89" spans="2:22">
-      <c r="B89" s="237"/>
-      <c r="C89" s="237"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="105"/>
       <c r="D89" s="36" t="s">
         <v>88</v>
       </c>
       <c r="E89" s="37"/>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="G89" s="98"/>
+      <c r="G89" s="115"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6921,29 +6921,29 @@
         <v>0</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="N89" s="129" t="s">
+      <c r="N89" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="O89" s="85"/>
-      <c r="P89" s="86"/>
-      <c r="Q89" s="86"/>
-      <c r="R89" s="86"/>
-      <c r="S89" s="86"/>
-      <c r="T89" s="86"/>
-      <c r="U89" s="86"/>
-      <c r="V89" s="87"/>
+      <c r="O89" s="152"/>
+      <c r="P89" s="153"/>
+      <c r="Q89" s="153"/>
+      <c r="R89" s="153"/>
+      <c r="S89" s="153"/>
+      <c r="T89" s="153"/>
+      <c r="U89" s="153"/>
+      <c r="V89" s="154"/>
     </row>
     <row r="90" spans="2:22">
-      <c r="B90" s="237"/>
-      <c r="C90" s="237"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="19" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="135" t="s">
+      <c r="F90" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="G90" s="136"/>
+      <c r="G90" s="113"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -6952,27 +6952,27 @@
         <v>0</v>
       </c>
       <c r="L90" s="3"/>
-      <c r="N90" s="130"/>
-      <c r="O90" s="88"/>
-      <c r="P90" s="89"/>
-      <c r="Q90" s="89"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="89"/>
-      <c r="V90" s="90"/>
+      <c r="N90" s="138"/>
+      <c r="O90" s="155"/>
+      <c r="P90" s="156"/>
+      <c r="Q90" s="156"/>
+      <c r="R90" s="156"/>
+      <c r="S90" s="156"/>
+      <c r="T90" s="156"/>
+      <c r="U90" s="156"/>
+      <c r="V90" s="157"/>
     </row>
     <row r="91" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B91" s="237"/>
-      <c r="C91" s="237"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
       <c r="D91" s="36" t="s">
         <v>90</v>
       </c>
       <c r="E91" s="37"/>
-      <c r="F91" s="97" t="s">
+      <c r="F91" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="98"/>
+      <c r="G91" s="115"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6981,27 +6981,27 @@
         <v>0</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="N91" s="195"/>
-      <c r="O91" s="196"/>
-      <c r="P91" s="196"/>
-      <c r="Q91" s="196"/>
-      <c r="R91" s="196"/>
-      <c r="S91" s="196"/>
-      <c r="T91" s="196"/>
-      <c r="U91" s="196"/>
-      <c r="V91" s="197"/>
+      <c r="N91" s="163"/>
+      <c r="O91" s="164"/>
+      <c r="P91" s="164"/>
+      <c r="Q91" s="164"/>
+      <c r="R91" s="164"/>
+      <c r="S91" s="164"/>
+      <c r="T91" s="164"/>
+      <c r="U91" s="164"/>
+      <c r="V91" s="165"/>
     </row>
     <row r="92" spans="2:22">
-      <c r="B92" s="237"/>
-      <c r="C92" s="237"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
       <c r="D92" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="135" t="s">
+      <c r="F92" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="G92" s="136"/>
+      <c r="G92" s="113"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -7010,27 +7010,27 @@
         <v>0</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="N92" s="198"/>
-      <c r="O92" s="199"/>
-      <c r="P92" s="199"/>
-      <c r="Q92" s="199"/>
-      <c r="R92" s="199"/>
-      <c r="S92" s="199"/>
-      <c r="T92" s="199"/>
-      <c r="U92" s="199"/>
-      <c r="V92" s="200"/>
+      <c r="N92" s="166"/>
+      <c r="O92" s="167"/>
+      <c r="P92" s="167"/>
+      <c r="Q92" s="167"/>
+      <c r="R92" s="167"/>
+      <c r="S92" s="167"/>
+      <c r="T92" s="167"/>
+      <c r="U92" s="167"/>
+      <c r="V92" s="168"/>
     </row>
     <row r="93" spans="2:22">
-      <c r="B93" s="237"/>
-      <c r="C93" s="237"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="37" t="s">
         <v>93</v>
       </c>
       <c r="E93" s="37"/>
-      <c r="F93" s="97" t="s">
+      <c r="F93" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="G93" s="98"/>
+      <c r="G93" s="115"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7039,27 +7039,27 @@
         <v>0</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="N93" s="198"/>
-      <c r="O93" s="199"/>
-      <c r="P93" s="199"/>
-      <c r="Q93" s="199"/>
-      <c r="R93" s="199"/>
-      <c r="S93" s="199"/>
-      <c r="T93" s="199"/>
-      <c r="U93" s="199"/>
-      <c r="V93" s="200"/>
+      <c r="N93" s="166"/>
+      <c r="O93" s="167"/>
+      <c r="P93" s="167"/>
+      <c r="Q93" s="167"/>
+      <c r="R93" s="167"/>
+      <c r="S93" s="167"/>
+      <c r="T93" s="167"/>
+      <c r="U93" s="167"/>
+      <c r="V93" s="168"/>
     </row>
     <row r="94" spans="2:22">
-      <c r="B94" s="237"/>
-      <c r="C94" s="237"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="135" t="s">
+      <c r="F94" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="G94" s="136"/>
+      <c r="G94" s="113"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -7068,27 +7068,27 @@
         <v>0</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="N94" s="198"/>
-      <c r="O94" s="199"/>
-      <c r="P94" s="199"/>
-      <c r="Q94" s="199"/>
-      <c r="R94" s="199"/>
-      <c r="S94" s="199"/>
-      <c r="T94" s="199"/>
-      <c r="U94" s="199"/>
-      <c r="V94" s="200"/>
+      <c r="N94" s="166"/>
+      <c r="O94" s="167"/>
+      <c r="P94" s="167"/>
+      <c r="Q94" s="167"/>
+      <c r="R94" s="167"/>
+      <c r="S94" s="167"/>
+      <c r="T94" s="167"/>
+      <c r="U94" s="167"/>
+      <c r="V94" s="168"/>
     </row>
     <row r="95" spans="2:22">
-      <c r="B95" s="237"/>
-      <c r="C95" s="237"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="37" t="s">
         <v>96</v>
       </c>
       <c r="E95" s="37"/>
-      <c r="F95" s="97" t="s">
+      <c r="F95" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="98"/>
+      <c r="G95" s="115"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7097,27 +7097,27 @@
         <v>0</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="N95" s="198"/>
-      <c r="O95" s="199"/>
-      <c r="P95" s="199"/>
-      <c r="Q95" s="199"/>
-      <c r="R95" s="199"/>
-      <c r="S95" s="199"/>
-      <c r="T95" s="199"/>
-      <c r="U95" s="199"/>
-      <c r="V95" s="200"/>
+      <c r="N95" s="166"/>
+      <c r="O95" s="167"/>
+      <c r="P95" s="167"/>
+      <c r="Q95" s="167"/>
+      <c r="R95" s="167"/>
+      <c r="S95" s="167"/>
+      <c r="T95" s="167"/>
+      <c r="U95" s="167"/>
+      <c r="V95" s="168"/>
     </row>
     <row r="96" spans="2:22">
-      <c r="B96" s="237"/>
-      <c r="C96" s="237"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E96" s="19"/>
-      <c r="F96" s="135" t="s">
+      <c r="F96" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="G96" s="136"/>
+      <c r="G96" s="113"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -7126,19 +7126,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="3"/>
-      <c r="N96" s="198"/>
-      <c r="O96" s="199"/>
-      <c r="P96" s="199"/>
-      <c r="Q96" s="199"/>
-      <c r="R96" s="199"/>
-      <c r="S96" s="199"/>
-      <c r="T96" s="199"/>
-      <c r="U96" s="199"/>
-      <c r="V96" s="200"/>
+      <c r="N96" s="166"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
+      <c r="Q96" s="167"/>
+      <c r="R96" s="167"/>
+      <c r="S96" s="167"/>
+      <c r="T96" s="167"/>
+      <c r="U96" s="167"/>
+      <c r="V96" s="168"/>
     </row>
     <row r="97" spans="2:22">
-      <c r="B97" s="237"/>
-      <c r="C97" s="237"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
       <c r="D97" s="22" t="s">
         <v>327</v>
       </c>
@@ -7157,27 +7157,27 @@
         <v>0</v>
       </c>
       <c r="L97" s="1"/>
-      <c r="N97" s="198"/>
-      <c r="O97" s="199"/>
-      <c r="P97" s="199"/>
-      <c r="Q97" s="199"/>
-      <c r="R97" s="199"/>
-      <c r="S97" s="199"/>
-      <c r="T97" s="199"/>
-      <c r="U97" s="199"/>
-      <c r="V97" s="200"/>
+      <c r="N97" s="166"/>
+      <c r="O97" s="167"/>
+      <c r="P97" s="167"/>
+      <c r="Q97" s="167"/>
+      <c r="R97" s="167"/>
+      <c r="S97" s="167"/>
+      <c r="T97" s="167"/>
+      <c r="U97" s="167"/>
+      <c r="V97" s="168"/>
     </row>
     <row r="98" spans="2:22">
-      <c r="B98" s="237"/>
-      <c r="C98" s="237"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="105"/>
       <c r="D98" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="23"/>
-      <c r="F98" s="99" t="s">
+      <c r="F98" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="G98" s="100"/>
+      <c r="G98" s="117"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
@@ -7186,27 +7186,27 @@
         <v>0</v>
       </c>
       <c r="L98" s="33"/>
-      <c r="N98" s="198"/>
-      <c r="O98" s="199"/>
-      <c r="P98" s="199"/>
-      <c r="Q98" s="199"/>
-      <c r="R98" s="199"/>
-      <c r="S98" s="199"/>
-      <c r="T98" s="199"/>
-      <c r="U98" s="199"/>
-      <c r="V98" s="200"/>
+      <c r="N98" s="166"/>
+      <c r="O98" s="167"/>
+      <c r="P98" s="167"/>
+      <c r="Q98" s="167"/>
+      <c r="R98" s="167"/>
+      <c r="S98" s="167"/>
+      <c r="T98" s="167"/>
+      <c r="U98" s="167"/>
+      <c r="V98" s="168"/>
     </row>
     <row r="99" spans="2:22">
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
       <c r="D99" s="38" t="s">
         <v>98</v>
       </c>
       <c r="E99" s="22"/>
-      <c r="F99" s="101" t="s">
+      <c r="F99" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="G99" s="102"/>
+      <c r="G99" s="82"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -7215,29 +7215,29 @@
         <v>0</v>
       </c>
       <c r="L99" s="1"/>
-      <c r="N99" s="198"/>
-      <c r="O99" s="199"/>
-      <c r="P99" s="199"/>
-      <c r="Q99" s="199"/>
-      <c r="R99" s="199"/>
-      <c r="S99" s="199"/>
-      <c r="T99" s="199"/>
-      <c r="U99" s="199"/>
-      <c r="V99" s="200"/>
+      <c r="N99" s="166"/>
+      <c r="O99" s="167"/>
+      <c r="P99" s="167"/>
+      <c r="Q99" s="167"/>
+      <c r="R99" s="167"/>
+      <c r="S99" s="167"/>
+      <c r="T99" s="167"/>
+      <c r="U99" s="167"/>
+      <c r="V99" s="168"/>
     </row>
     <row r="100" spans="2:22">
-      <c r="B100" s="189" t="s">
+      <c r="B100" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="189"/>
-      <c r="D100" s="189" t="s">
+      <c r="C100" s="85"/>
+      <c r="D100" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="189"/>
-      <c r="F100" s="99" t="s">
+      <c r="E100" s="85"/>
+      <c r="F100" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="G100" s="100"/>
+      <c r="G100" s="117"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -7246,25 +7246,25 @@
         <v>0</v>
       </c>
       <c r="L100" s="33"/>
-      <c r="N100" s="198"/>
-      <c r="O100" s="199"/>
-      <c r="P100" s="199"/>
-      <c r="Q100" s="199"/>
-      <c r="R100" s="199"/>
-      <c r="S100" s="199"/>
-      <c r="T100" s="199"/>
-      <c r="U100" s="199"/>
-      <c r="V100" s="200"/>
+      <c r="N100" s="166"/>
+      <c r="O100" s="167"/>
+      <c r="P100" s="167"/>
+      <c r="Q100" s="167"/>
+      <c r="R100" s="167"/>
+      <c r="S100" s="167"/>
+      <c r="T100" s="167"/>
+      <c r="U100" s="167"/>
+      <c r="V100" s="168"/>
     </row>
     <row r="101" spans="2:22">
-      <c r="B101" s="190"/>
-      <c r="C101" s="190"/>
-      <c r="D101" s="204"/>
-      <c r="E101" s="204"/>
-      <c r="F101" s="101" t="s">
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="G101" s="102"/>
+      <c r="G101" s="82"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -7273,27 +7273,27 @@
         <v>0</v>
       </c>
       <c r="L101" s="1"/>
-      <c r="N101" s="198"/>
-      <c r="O101" s="199"/>
-      <c r="P101" s="199"/>
-      <c r="Q101" s="199"/>
-      <c r="R101" s="199"/>
-      <c r="S101" s="199"/>
-      <c r="T101" s="199"/>
-      <c r="U101" s="199"/>
-      <c r="V101" s="200"/>
+      <c r="N101" s="166"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="Q101" s="167"/>
+      <c r="R101" s="167"/>
+      <c r="S101" s="167"/>
+      <c r="T101" s="167"/>
+      <c r="U101" s="167"/>
+      <c r="V101" s="168"/>
     </row>
     <row r="102" spans="2:22">
-      <c r="B102" s="190"/>
-      <c r="C102" s="190"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
       <c r="D102" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E102" s="37"/>
-      <c r="F102" s="99" t="s">
+      <c r="F102" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="G102" s="100"/>
+      <c r="G102" s="117"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
@@ -7302,27 +7302,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="33"/>
-      <c r="N102" s="198"/>
-      <c r="O102" s="199"/>
-      <c r="P102" s="199"/>
-      <c r="Q102" s="199"/>
-      <c r="R102" s="199"/>
-      <c r="S102" s="199"/>
-      <c r="T102" s="199"/>
-      <c r="U102" s="199"/>
-      <c r="V102" s="200"/>
+      <c r="N102" s="166"/>
+      <c r="O102" s="167"/>
+      <c r="P102" s="167"/>
+      <c r="Q102" s="167"/>
+      <c r="R102" s="167"/>
+      <c r="S102" s="167"/>
+      <c r="T102" s="167"/>
+      <c r="U102" s="167"/>
+      <c r="V102" s="168"/>
     </row>
     <row r="103" spans="2:22">
-      <c r="B103" s="190"/>
-      <c r="C103" s="190"/>
-      <c r="D103" s="120" t="s">
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="120"/>
-      <c r="F103" s="101" t="s">
+      <c r="E103" s="95"/>
+      <c r="F103" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="G103" s="102"/>
+      <c r="G103" s="82"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -7331,25 +7331,25 @@
         <v>0</v>
       </c>
       <c r="L103" s="1"/>
-      <c r="N103" s="198"/>
-      <c r="O103" s="199"/>
-      <c r="P103" s="199"/>
-      <c r="Q103" s="199"/>
-      <c r="R103" s="199"/>
-      <c r="S103" s="199"/>
-      <c r="T103" s="199"/>
-      <c r="U103" s="199"/>
-      <c r="V103" s="200"/>
+      <c r="N103" s="166"/>
+      <c r="O103" s="167"/>
+      <c r="P103" s="167"/>
+      <c r="Q103" s="167"/>
+      <c r="R103" s="167"/>
+      <c r="S103" s="167"/>
+      <c r="T103" s="167"/>
+      <c r="U103" s="167"/>
+      <c r="V103" s="168"/>
     </row>
     <row r="104" spans="2:22">
-      <c r="B104" s="190"/>
-      <c r="C104" s="190"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="99" t="s">
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="100"/>
+      <c r="G104" s="117"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
       <c r="J104" s="33"/>
@@ -7358,25 +7358,25 @@
         <v>0</v>
       </c>
       <c r="L104" s="33"/>
-      <c r="N104" s="198"/>
-      <c r="O104" s="199"/>
-      <c r="P104" s="199"/>
-      <c r="Q104" s="199"/>
-      <c r="R104" s="199"/>
-      <c r="S104" s="199"/>
-      <c r="T104" s="199"/>
-      <c r="U104" s="199"/>
-      <c r="V104" s="200"/>
+      <c r="N104" s="166"/>
+      <c r="O104" s="167"/>
+      <c r="P104" s="167"/>
+      <c r="Q104" s="167"/>
+      <c r="R104" s="167"/>
+      <c r="S104" s="167"/>
+      <c r="T104" s="167"/>
+      <c r="U104" s="167"/>
+      <c r="V104" s="168"/>
     </row>
     <row r="105" spans="2:22">
-      <c r="B105" s="190"/>
-      <c r="C105" s="190"/>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="101" t="s">
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G105" s="102"/>
+      <c r="G105" s="82"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -7385,25 +7385,25 @@
         <v>0</v>
       </c>
       <c r="L105" s="1"/>
-      <c r="N105" s="198"/>
-      <c r="O105" s="199"/>
-      <c r="P105" s="199"/>
-      <c r="Q105" s="199"/>
-      <c r="R105" s="199"/>
-      <c r="S105" s="199"/>
-      <c r="T105" s="199"/>
-      <c r="U105" s="199"/>
-      <c r="V105" s="200"/>
+      <c r="N105" s="166"/>
+      <c r="O105" s="167"/>
+      <c r="P105" s="167"/>
+      <c r="Q105" s="167"/>
+      <c r="R105" s="167"/>
+      <c r="S105" s="167"/>
+      <c r="T105" s="167"/>
+      <c r="U105" s="167"/>
+      <c r="V105" s="168"/>
     </row>
     <row r="106" spans="2:22">
-      <c r="B106" s="190"/>
-      <c r="C106" s="190"/>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="99" t="s">
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="G106" s="100"/>
+      <c r="G106" s="117"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
@@ -7412,25 +7412,25 @@
         <v>0</v>
       </c>
       <c r="L106" s="33"/>
-      <c r="N106" s="198"/>
-      <c r="O106" s="199"/>
-      <c r="P106" s="199"/>
-      <c r="Q106" s="199"/>
-      <c r="R106" s="199"/>
-      <c r="S106" s="199"/>
-      <c r="T106" s="199"/>
-      <c r="U106" s="199"/>
-      <c r="V106" s="200"/>
+      <c r="N106" s="166"/>
+      <c r="O106" s="167"/>
+      <c r="P106" s="167"/>
+      <c r="Q106" s="167"/>
+      <c r="R106" s="167"/>
+      <c r="S106" s="167"/>
+      <c r="T106" s="167"/>
+      <c r="U106" s="167"/>
+      <c r="V106" s="168"/>
     </row>
     <row r="107" spans="2:22">
-      <c r="B107" s="190"/>
-      <c r="C107" s="190"/>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="101" t="s">
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="G107" s="102"/>
+      <c r="G107" s="82"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -7439,25 +7439,25 @@
         <v>0</v>
       </c>
       <c r="L107" s="1"/>
-      <c r="N107" s="198"/>
-      <c r="O107" s="199"/>
-      <c r="P107" s="199"/>
-      <c r="Q107" s="199"/>
-      <c r="R107" s="199"/>
-      <c r="S107" s="199"/>
-      <c r="T107" s="199"/>
-      <c r="U107" s="199"/>
-      <c r="V107" s="200"/>
+      <c r="N107" s="166"/>
+      <c r="O107" s="167"/>
+      <c r="P107" s="167"/>
+      <c r="Q107" s="167"/>
+      <c r="R107" s="167"/>
+      <c r="S107" s="167"/>
+      <c r="T107" s="167"/>
+      <c r="U107" s="167"/>
+      <c r="V107" s="168"/>
     </row>
     <row r="108" spans="2:22">
-      <c r="B108" s="190"/>
-      <c r="C108" s="190"/>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="99" t="s">
+      <c r="B108" s="86"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="G108" s="100"/>
+      <c r="G108" s="117"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
@@ -7466,25 +7466,25 @@
         <v>0</v>
       </c>
       <c r="L108" s="33"/>
-      <c r="N108" s="201"/>
-      <c r="O108" s="202"/>
-      <c r="P108" s="202"/>
-      <c r="Q108" s="202"/>
-      <c r="R108" s="202"/>
-      <c r="S108" s="202"/>
-      <c r="T108" s="202"/>
-      <c r="U108" s="202"/>
-      <c r="V108" s="203"/>
+      <c r="N108" s="169"/>
+      <c r="O108" s="170"/>
+      <c r="P108" s="170"/>
+      <c r="Q108" s="170"/>
+      <c r="R108" s="170"/>
+      <c r="S108" s="170"/>
+      <c r="T108" s="170"/>
+      <c r="U108" s="170"/>
+      <c r="V108" s="171"/>
     </row>
     <row r="109" spans="2:22">
-      <c r="B109" s="190"/>
-      <c r="C109" s="190"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="101" t="s">
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="G109" s="102"/>
+      <c r="G109" s="82"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -7495,14 +7495,14 @@
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="2:22">
-      <c r="B110" s="190"/>
-      <c r="C110" s="190"/>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
-      <c r="F110" s="99" t="s">
+      <c r="B110" s="86"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="G110" s="100"/>
+      <c r="G110" s="117"/>
       <c r="H110" s="33"/>
       <c r="I110" s="33"/>
       <c r="J110" s="33"/>
@@ -7511,27 +7511,27 @@
         <v>0</v>
       </c>
       <c r="L110" s="33"/>
-      <c r="N110" s="112" t="s">
+      <c r="N110" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="O110" s="113"/>
-      <c r="P110" s="113"/>
-      <c r="Q110" s="113"/>
-      <c r="R110" s="113"/>
-      <c r="S110" s="113"/>
-      <c r="T110" s="113"/>
-      <c r="U110" s="113"/>
-      <c r="V110" s="114"/>
+      <c r="O110" s="150"/>
+      <c r="P110" s="150"/>
+      <c r="Q110" s="150"/>
+      <c r="R110" s="150"/>
+      <c r="S110" s="150"/>
+      <c r="T110" s="150"/>
+      <c r="U110" s="150"/>
+      <c r="V110" s="151"/>
     </row>
     <row r="111" spans="2:22">
-      <c r="B111" s="190"/>
-      <c r="C111" s="190"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="101" t="s">
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="G111" s="102"/>
+      <c r="G111" s="82"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -7549,24 +7549,24 @@
       <c r="P111" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="Q111" s="223" t="s">
+      <c r="Q111" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="R111" s="223"/>
-      <c r="S111" s="223"/>
-      <c r="T111" s="223"/>
-      <c r="U111" s="223"/>
-      <c r="V111" s="223"/>
+      <c r="R111" s="104"/>
+      <c r="S111" s="104"/>
+      <c r="T111" s="104"/>
+      <c r="U111" s="104"/>
+      <c r="V111" s="104"/>
     </row>
     <row r="112" spans="2:22">
-      <c r="B112" s="190"/>
-      <c r="C112" s="190"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="177" t="s">
+      <c r="B112" s="86"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="G112" s="178"/>
+      <c r="G112" s="119"/>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
       <c r="J112" s="33"/>
@@ -7578,22 +7578,22 @@
       <c r="N112" s="6"/>
       <c r="O112" s="46"/>
       <c r="P112" s="46"/>
-      <c r="Q112" s="79"/>
-      <c r="R112" s="80"/>
-      <c r="S112" s="80"/>
-      <c r="T112" s="80"/>
-      <c r="U112" s="80"/>
-      <c r="V112" s="81"/>
+      <c r="Q112" s="143"/>
+      <c r="R112" s="144"/>
+      <c r="S112" s="144"/>
+      <c r="T112" s="144"/>
+      <c r="U112" s="144"/>
+      <c r="V112" s="145"/>
     </row>
     <row r="113" spans="2:22">
-      <c r="B113" s="190"/>
-      <c r="C113" s="190"/>
-      <c r="D113" s="121"/>
-      <c r="E113" s="121"/>
-      <c r="F113" s="191" t="s">
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="G113" s="192"/>
+      <c r="G113" s="128"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -7605,22 +7605,22 @@
       <c r="N113" s="5"/>
       <c r="O113" s="45"/>
       <c r="P113" s="45"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="77"/>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="77"/>
-      <c r="V113" s="78"/>
+      <c r="Q113" s="146"/>
+      <c r="R113" s="147"/>
+      <c r="S113" s="147"/>
+      <c r="T113" s="147"/>
+      <c r="U113" s="147"/>
+      <c r="V113" s="148"/>
     </row>
     <row r="114" spans="2:22">
-      <c r="B114" s="190"/>
-      <c r="C114" s="190"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="177" t="s">
+      <c r="B114" s="86"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="G114" s="178"/>
+      <c r="G114" s="119"/>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
@@ -7632,22 +7632,22 @@
       <c r="N114" s="6"/>
       <c r="O114" s="46"/>
       <c r="P114" s="46"/>
-      <c r="Q114" s="79"/>
-      <c r="R114" s="80"/>
-      <c r="S114" s="80"/>
-      <c r="T114" s="80"/>
-      <c r="U114" s="80"/>
-      <c r="V114" s="81"/>
+      <c r="Q114" s="143"/>
+      <c r="R114" s="144"/>
+      <c r="S114" s="144"/>
+      <c r="T114" s="144"/>
+      <c r="U114" s="144"/>
+      <c r="V114" s="145"/>
     </row>
     <row r="115" spans="2:22">
-      <c r="B115" s="190"/>
-      <c r="C115" s="190"/>
-      <c r="D115" s="121"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="191" t="s">
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="G115" s="192"/>
+      <c r="G115" s="128"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -7659,22 +7659,22 @@
       <c r="N115" s="5"/>
       <c r="O115" s="45"/>
       <c r="P115" s="45"/>
-      <c r="Q115" s="76"/>
-      <c r="R115" s="77"/>
-      <c r="S115" s="77"/>
-      <c r="T115" s="77"/>
-      <c r="U115" s="77"/>
-      <c r="V115" s="78"/>
+      <c r="Q115" s="146"/>
+      <c r="R115" s="147"/>
+      <c r="S115" s="147"/>
+      <c r="T115" s="147"/>
+      <c r="U115" s="147"/>
+      <c r="V115" s="148"/>
     </row>
     <row r="116" spans="2:22">
-      <c r="B116" s="190"/>
-      <c r="C116" s="190"/>
-      <c r="D116" s="121"/>
-      <c r="E116" s="121"/>
-      <c r="F116" s="177" t="s">
+      <c r="B116" s="86"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="G116" s="178"/>
+      <c r="G116" s="119"/>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
       <c r="J116" s="33"/>
@@ -7686,22 +7686,22 @@
       <c r="N116" s="6"/>
       <c r="O116" s="46"/>
       <c r="P116" s="46"/>
-      <c r="Q116" s="79"/>
-      <c r="R116" s="80"/>
-      <c r="S116" s="80"/>
-      <c r="T116" s="80"/>
-      <c r="U116" s="80"/>
-      <c r="V116" s="81"/>
+      <c r="Q116" s="143"/>
+      <c r="R116" s="144"/>
+      <c r="S116" s="144"/>
+      <c r="T116" s="144"/>
+      <c r="U116" s="144"/>
+      <c r="V116" s="145"/>
     </row>
     <row r="117" spans="2:22">
-      <c r="B117" s="190"/>
-      <c r="C117" s="190"/>
-      <c r="D117" s="121"/>
-      <c r="E117" s="121"/>
-      <c r="F117" s="191" t="s">
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="G117" s="192"/>
+      <c r="G117" s="128"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -7713,22 +7713,22 @@
       <c r="N117" s="5"/>
       <c r="O117" s="45"/>
       <c r="P117" s="45"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="77"/>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="77"/>
-      <c r="V117" s="78"/>
+      <c r="Q117" s="146"/>
+      <c r="R117" s="147"/>
+      <c r="S117" s="147"/>
+      <c r="T117" s="147"/>
+      <c r="U117" s="147"/>
+      <c r="V117" s="148"/>
     </row>
     <row r="118" spans="2:22">
-      <c r="B118" s="190"/>
-      <c r="C118" s="190"/>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="177" t="s">
+      <c r="B118" s="86"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="G118" s="178"/>
+      <c r="G118" s="119"/>
       <c r="H118" s="33"/>
       <c r="I118" s="33"/>
       <c r="J118" s="33"/>
@@ -7740,22 +7740,22 @@
       <c r="N118" s="6"/>
       <c r="O118" s="46"/>
       <c r="P118" s="46"/>
-      <c r="Q118" s="79"/>
-      <c r="R118" s="80"/>
-      <c r="S118" s="80"/>
-      <c r="T118" s="80"/>
-      <c r="U118" s="80"/>
-      <c r="V118" s="81"/>
+      <c r="Q118" s="143"/>
+      <c r="R118" s="144"/>
+      <c r="S118" s="144"/>
+      <c r="T118" s="144"/>
+      <c r="U118" s="144"/>
+      <c r="V118" s="145"/>
     </row>
     <row r="119" spans="2:22">
-      <c r="B119" s="190"/>
-      <c r="C119" s="190"/>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="191" t="s">
+      <c r="B119" s="86"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="G119" s="192"/>
+      <c r="G119" s="128"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -7767,22 +7767,22 @@
       <c r="N119" s="5"/>
       <c r="O119" s="45"/>
       <c r="P119" s="45"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="77"/>
-      <c r="V119" s="78"/>
+      <c r="Q119" s="146"/>
+      <c r="R119" s="147"/>
+      <c r="S119" s="147"/>
+      <c r="T119" s="147"/>
+      <c r="U119" s="147"/>
+      <c r="V119" s="148"/>
     </row>
     <row r="120" spans="2:22">
-      <c r="B120" s="190"/>
-      <c r="C120" s="190"/>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="177" t="s">
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="G120" s="178"/>
+      <c r="G120" s="119"/>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
       <c r="J120" s="33"/>
@@ -7794,22 +7794,22 @@
       <c r="N120" s="6"/>
       <c r="O120" s="46"/>
       <c r="P120" s="46"/>
-      <c r="Q120" s="79"/>
-      <c r="R120" s="80"/>
-      <c r="S120" s="80"/>
-      <c r="T120" s="80"/>
-      <c r="U120" s="80"/>
-      <c r="V120" s="81"/>
+      <c r="Q120" s="143"/>
+      <c r="R120" s="144"/>
+      <c r="S120" s="144"/>
+      <c r="T120" s="144"/>
+      <c r="U120" s="144"/>
+      <c r="V120" s="145"/>
     </row>
     <row r="121" spans="2:22">
-      <c r="B121" s="190"/>
-      <c r="C121" s="190"/>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="191" t="s">
+      <c r="B121" s="86"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="G121" s="192"/>
+      <c r="G121" s="128"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -7821,22 +7821,22 @@
       <c r="N121" s="5"/>
       <c r="O121" s="45"/>
       <c r="P121" s="45"/>
-      <c r="Q121" s="76"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="78"/>
+      <c r="Q121" s="146"/>
+      <c r="R121" s="147"/>
+      <c r="S121" s="147"/>
+      <c r="T121" s="147"/>
+      <c r="U121" s="147"/>
+      <c r="V121" s="148"/>
     </row>
     <row r="122" spans="2:22">
-      <c r="B122" s="190"/>
-      <c r="C122" s="190"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="177" t="s">
+      <c r="B122" s="86"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="G122" s="178"/>
+      <c r="G122" s="119"/>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
       <c r="J122" s="33"/>
@@ -7848,22 +7848,22 @@
       <c r="N122" s="6"/>
       <c r="O122" s="46"/>
       <c r="P122" s="46"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="80"/>
-      <c r="S122" s="80"/>
-      <c r="T122" s="80"/>
-      <c r="U122" s="80"/>
-      <c r="V122" s="81"/>
+      <c r="Q122" s="143"/>
+      <c r="R122" s="144"/>
+      <c r="S122" s="144"/>
+      <c r="T122" s="144"/>
+      <c r="U122" s="144"/>
+      <c r="V122" s="145"/>
     </row>
     <row r="123" spans="2:22">
-      <c r="B123" s="190"/>
-      <c r="C123" s="190"/>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="191" t="s">
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="G123" s="192"/>
+      <c r="G123" s="128"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -7875,22 +7875,22 @@
       <c r="N123" s="5"/>
       <c r="O123" s="45"/>
       <c r="P123" s="45"/>
-      <c r="Q123" s="76"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
-      <c r="T123" s="77"/>
-      <c r="U123" s="77"/>
-      <c r="V123" s="78"/>
+      <c r="Q123" s="146"/>
+      <c r="R123" s="147"/>
+      <c r="S123" s="147"/>
+      <c r="T123" s="147"/>
+      <c r="U123" s="147"/>
+      <c r="V123" s="148"/>
     </row>
     <row r="124" spans="2:22">
-      <c r="B124" s="190"/>
-      <c r="C124" s="190"/>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="177" t="s">
+      <c r="B124" s="86"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="G124" s="178"/>
+      <c r="G124" s="119"/>
       <c r="H124" s="33"/>
       <c r="I124" s="33"/>
       <c r="J124" s="33"/>
@@ -7902,22 +7902,22 @@
       <c r="N124" s="6"/>
       <c r="O124" s="46"/>
       <c r="P124" s="46"/>
-      <c r="Q124" s="79"/>
-      <c r="R124" s="80"/>
-      <c r="S124" s="80"/>
-      <c r="T124" s="80"/>
-      <c r="U124" s="80"/>
-      <c r="V124" s="81"/>
+      <c r="Q124" s="143"/>
+      <c r="R124" s="144"/>
+      <c r="S124" s="144"/>
+      <c r="T124" s="144"/>
+      <c r="U124" s="144"/>
+      <c r="V124" s="145"/>
     </row>
     <row r="125" spans="2:22">
-      <c r="B125" s="190"/>
-      <c r="C125" s="190"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="125" t="s">
+      <c r="B125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="G125" s="126"/>
+      <c r="G125" s="109"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7929,22 +7929,22 @@
       <c r="N125" s="5"/>
       <c r="O125" s="45"/>
       <c r="P125" s="45"/>
-      <c r="Q125" s="76"/>
-      <c r="R125" s="77"/>
-      <c r="S125" s="77"/>
-      <c r="T125" s="77"/>
-      <c r="U125" s="77"/>
-      <c r="V125" s="78"/>
+      <c r="Q125" s="146"/>
+      <c r="R125" s="147"/>
+      <c r="S125" s="147"/>
+      <c r="T125" s="147"/>
+      <c r="U125" s="147"/>
+      <c r="V125" s="148"/>
     </row>
     <row r="126" spans="2:22">
-      <c r="B126" s="190"/>
-      <c r="C126" s="190"/>
-      <c r="D126" s="121"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="179" t="s">
+      <c r="B126" s="86"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="186" t="s">
         <v>336</v>
       </c>
-      <c r="G126" s="180"/>
+      <c r="G126" s="187"/>
       <c r="H126" s="33"/>
       <c r="I126" s="33"/>
       <c r="J126" s="33"/>
@@ -7956,22 +7956,22 @@
       <c r="N126" s="6"/>
       <c r="O126" s="46"/>
       <c r="P126" s="46"/>
-      <c r="Q126" s="79"/>
-      <c r="R126" s="80"/>
-      <c r="S126" s="80"/>
-      <c r="T126" s="80"/>
-      <c r="U126" s="80"/>
-      <c r="V126" s="81"/>
+      <c r="Q126" s="143"/>
+      <c r="R126" s="144"/>
+      <c r="S126" s="144"/>
+      <c r="T126" s="144"/>
+      <c r="U126" s="144"/>
+      <c r="V126" s="145"/>
     </row>
     <row r="127" spans="2:22">
-      <c r="B127" s="190"/>
-      <c r="C127" s="190"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="125" t="s">
+      <c r="B127" s="86"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="G127" s="126"/>
+      <c r="G127" s="109"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -7983,22 +7983,22 @@
       <c r="N127" s="5"/>
       <c r="O127" s="45"/>
       <c r="P127" s="45"/>
-      <c r="Q127" s="76"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="77"/>
-      <c r="T127" s="77"/>
-      <c r="U127" s="77"/>
-      <c r="V127" s="78"/>
+      <c r="Q127" s="146"/>
+      <c r="R127" s="147"/>
+      <c r="S127" s="147"/>
+      <c r="T127" s="147"/>
+      <c r="U127" s="147"/>
+      <c r="V127" s="148"/>
     </row>
     <row r="128" spans="2:22">
-      <c r="B128" s="204"/>
-      <c r="C128" s="204"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="110" t="s">
+      <c r="B128" s="87"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="G128" s="111"/>
+      <c r="G128" s="107"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -8010,26 +8010,26 @@
       <c r="N128" s="6"/>
       <c r="O128" s="46"/>
       <c r="P128" s="46"/>
-      <c r="Q128" s="79"/>
-      <c r="R128" s="80"/>
-      <c r="S128" s="80"/>
-      <c r="T128" s="80"/>
-      <c r="U128" s="80"/>
-      <c r="V128" s="81"/>
+      <c r="Q128" s="143"/>
+      <c r="R128" s="144"/>
+      <c r="S128" s="144"/>
+      <c r="T128" s="144"/>
+      <c r="U128" s="144"/>
+      <c r="V128" s="145"/>
     </row>
     <row r="129" spans="2:22">
-      <c r="B129" s="186" t="s">
+      <c r="B129" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="186"/>
+      <c r="C129" s="88"/>
       <c r="D129" s="37" t="s">
         <v>128</v>
       </c>
       <c r="E129" s="37"/>
-      <c r="F129" s="97" t="s">
+      <c r="F129" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="G129" s="98"/>
+      <c r="G129" s="115"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -8041,24 +8041,24 @@
       <c r="N129" s="5"/>
       <c r="O129" s="45"/>
       <c r="P129" s="45"/>
-      <c r="Q129" s="76"/>
-      <c r="R129" s="77"/>
-      <c r="S129" s="77"/>
-      <c r="T129" s="77"/>
-      <c r="U129" s="77"/>
-      <c r="V129" s="78"/>
+      <c r="Q129" s="146"/>
+      <c r="R129" s="147"/>
+      <c r="S129" s="147"/>
+      <c r="T129" s="147"/>
+      <c r="U129" s="147"/>
+      <c r="V129" s="148"/>
     </row>
     <row r="130" spans="2:22">
-      <c r="B130" s="187"/>
-      <c r="C130" s="187"/>
-      <c r="D130" s="120" t="s">
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="E130" s="120"/>
-      <c r="F130" s="110" t="s">
+      <c r="E130" s="95"/>
+      <c r="F130" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="G130" s="111"/>
+      <c r="G130" s="107"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -8070,22 +8070,22 @@
       <c r="N130" s="6"/>
       <c r="O130" s="46"/>
       <c r="P130" s="46"/>
-      <c r="Q130" s="79"/>
-      <c r="R130" s="80"/>
-      <c r="S130" s="80"/>
-      <c r="T130" s="80"/>
-      <c r="U130" s="80"/>
-      <c r="V130" s="81"/>
+      <c r="Q130" s="143"/>
+      <c r="R130" s="144"/>
+      <c r="S130" s="144"/>
+      <c r="T130" s="144"/>
+      <c r="U130" s="144"/>
+      <c r="V130" s="145"/>
     </row>
     <row r="131" spans="2:22">
-      <c r="B131" s="187"/>
-      <c r="C131" s="187"/>
-      <c r="D131" s="121"/>
-      <c r="E131" s="121"/>
-      <c r="F131" s="133" t="s">
+      <c r="B131" s="89"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="96"/>
+      <c r="F131" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="G131" s="134"/>
+      <c r="G131" s="130"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -8097,22 +8097,22 @@
       <c r="N131" s="5"/>
       <c r="O131" s="45"/>
       <c r="P131" s="45"/>
-      <c r="Q131" s="76"/>
-      <c r="R131" s="77"/>
-      <c r="S131" s="77"/>
-      <c r="T131" s="77"/>
-      <c r="U131" s="77"/>
-      <c r="V131" s="78"/>
+      <c r="Q131" s="146"/>
+      <c r="R131" s="147"/>
+      <c r="S131" s="147"/>
+      <c r="T131" s="147"/>
+      <c r="U131" s="147"/>
+      <c r="V131" s="148"/>
     </row>
     <row r="132" spans="2:22">
-      <c r="B132" s="187"/>
-      <c r="C132" s="187"/>
-      <c r="D132" s="121"/>
-      <c r="E132" s="121"/>
-      <c r="F132" s="110" t="s">
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="96"/>
+      <c r="F132" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="G132" s="111"/>
+      <c r="G132" s="107"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -8124,22 +8124,22 @@
       <c r="N132" s="6"/>
       <c r="O132" s="46"/>
       <c r="P132" s="46"/>
-      <c r="Q132" s="79"/>
-      <c r="R132" s="80"/>
-      <c r="S132" s="80"/>
-      <c r="T132" s="80"/>
-      <c r="U132" s="80"/>
-      <c r="V132" s="81"/>
+      <c r="Q132" s="143"/>
+      <c r="R132" s="144"/>
+      <c r="S132" s="144"/>
+      <c r="T132" s="144"/>
+      <c r="U132" s="144"/>
+      <c r="V132" s="145"/>
     </row>
     <row r="133" spans="2:22">
-      <c r="B133" s="187"/>
-      <c r="C133" s="187"/>
-      <c r="D133" s="121"/>
-      <c r="E133" s="121"/>
-      <c r="F133" s="133" t="s">
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="134"/>
+      <c r="G133" s="130"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -8151,22 +8151,22 @@
       <c r="N133" s="5"/>
       <c r="O133" s="45"/>
       <c r="P133" s="45"/>
-      <c r="Q133" s="76"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="77"/>
-      <c r="V133" s="78"/>
+      <c r="Q133" s="146"/>
+      <c r="R133" s="147"/>
+      <c r="S133" s="147"/>
+      <c r="T133" s="147"/>
+      <c r="U133" s="147"/>
+      <c r="V133" s="148"/>
     </row>
     <row r="134" spans="2:22">
-      <c r="B134" s="187"/>
-      <c r="C134" s="187"/>
-      <c r="D134" s="121"/>
-      <c r="E134" s="121"/>
-      <c r="F134" s="110" t="s">
+      <c r="B134" s="89"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="96"/>
+      <c r="F134" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="G134" s="111"/>
+      <c r="G134" s="107"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -8178,22 +8178,22 @@
       <c r="N134" s="6"/>
       <c r="O134" s="46"/>
       <c r="P134" s="46"/>
-      <c r="Q134" s="79"/>
-      <c r="R134" s="80"/>
-      <c r="S134" s="80"/>
-      <c r="T134" s="80"/>
-      <c r="U134" s="80"/>
-      <c r="V134" s="81"/>
+      <c r="Q134" s="143"/>
+      <c r="R134" s="144"/>
+      <c r="S134" s="144"/>
+      <c r="T134" s="144"/>
+      <c r="U134" s="144"/>
+      <c r="V134" s="145"/>
     </row>
     <row r="135" spans="2:22">
-      <c r="B135" s="187"/>
-      <c r="C135" s="187"/>
-      <c r="D135" s="121"/>
-      <c r="E135" s="121"/>
-      <c r="F135" s="156" t="s">
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="96"/>
+      <c r="E135" s="96"/>
+      <c r="F135" s="218" t="s">
         <v>351</v>
       </c>
-      <c r="G135" s="157"/>
+      <c r="G135" s="219"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -8205,22 +8205,22 @@
       <c r="N135" s="5"/>
       <c r="O135" s="45"/>
       <c r="P135" s="45"/>
-      <c r="Q135" s="76"/>
-      <c r="R135" s="77"/>
-      <c r="S135" s="77"/>
-      <c r="T135" s="77"/>
-      <c r="U135" s="77"/>
-      <c r="V135" s="78"/>
+      <c r="Q135" s="146"/>
+      <c r="R135" s="147"/>
+      <c r="S135" s="147"/>
+      <c r="T135" s="147"/>
+      <c r="U135" s="147"/>
+      <c r="V135" s="148"/>
     </row>
     <row r="136" spans="2:22">
-      <c r="B136" s="187"/>
-      <c r="C136" s="187"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="99" t="s">
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="G136" s="100"/>
+      <c r="G136" s="117"/>
       <c r="H136" s="33"/>
       <c r="I136" s="33"/>
       <c r="J136" s="33"/>
@@ -8232,24 +8232,24 @@
       <c r="N136" s="6"/>
       <c r="O136" s="46"/>
       <c r="P136" s="46"/>
-      <c r="Q136" s="79"/>
-      <c r="R136" s="80"/>
-      <c r="S136" s="80"/>
-      <c r="T136" s="80"/>
-      <c r="U136" s="80"/>
-      <c r="V136" s="81"/>
+      <c r="Q136" s="143"/>
+      <c r="R136" s="144"/>
+      <c r="S136" s="144"/>
+      <c r="T136" s="144"/>
+      <c r="U136" s="144"/>
+      <c r="V136" s="145"/>
     </row>
     <row r="137" spans="2:22">
-      <c r="B137" s="187"/>
-      <c r="C137" s="187"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
       <c r="D137" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E137" s="22"/>
-      <c r="F137" s="101" t="s">
+      <c r="F137" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="G137" s="102"/>
+      <c r="G137" s="82"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -8261,24 +8261,24 @@
       <c r="N137" s="5"/>
       <c r="O137" s="45"/>
       <c r="P137" s="45"/>
-      <c r="Q137" s="76"/>
-      <c r="R137" s="77"/>
-      <c r="S137" s="77"/>
-      <c r="T137" s="77"/>
-      <c r="U137" s="77"/>
-      <c r="V137" s="78"/>
+      <c r="Q137" s="146"/>
+      <c r="R137" s="147"/>
+      <c r="S137" s="147"/>
+      <c r="T137" s="147"/>
+      <c r="U137" s="147"/>
+      <c r="V137" s="148"/>
     </row>
     <row r="138" spans="2:22">
-      <c r="B138" s="187"/>
-      <c r="C138" s="187"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="89"/>
       <c r="D138" s="31" t="s">
         <v>136</v>
       </c>
       <c r="E138" s="23"/>
-      <c r="F138" s="99" t="s">
+      <c r="F138" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="G138" s="100"/>
+      <c r="G138" s="117"/>
       <c r="H138" s="33"/>
       <c r="I138" s="33"/>
       <c r="J138" s="33"/>
@@ -8290,24 +8290,24 @@
       <c r="N138" s="6"/>
       <c r="O138" s="46"/>
       <c r="P138" s="46"/>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="80"/>
-      <c r="S138" s="80"/>
-      <c r="T138" s="80"/>
-      <c r="U138" s="80"/>
-      <c r="V138" s="81"/>
+      <c r="Q138" s="143"/>
+      <c r="R138" s="144"/>
+      <c r="S138" s="144"/>
+      <c r="T138" s="144"/>
+      <c r="U138" s="144"/>
+      <c r="V138" s="145"/>
     </row>
     <row r="139" spans="2:22">
-      <c r="B139" s="187"/>
-      <c r="C139" s="187"/>
-      <c r="D139" s="205" t="s">
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="E139" s="123"/>
-      <c r="F139" s="101" t="s">
+      <c r="E139" s="93"/>
+      <c r="F139" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="G139" s="102"/>
+      <c r="G139" s="82"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -8319,22 +8319,22 @@
       <c r="N139" s="5"/>
       <c r="O139" s="45"/>
       <c r="P139" s="45"/>
-      <c r="Q139" s="76"/>
-      <c r="R139" s="77"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="77"/>
-      <c r="U139" s="77"/>
-      <c r="V139" s="78"/>
+      <c r="Q139" s="146"/>
+      <c r="R139" s="147"/>
+      <c r="S139" s="147"/>
+      <c r="T139" s="147"/>
+      <c r="U139" s="147"/>
+      <c r="V139" s="148"/>
     </row>
     <row r="140" spans="2:22">
-      <c r="B140" s="187"/>
-      <c r="C140" s="187"/>
-      <c r="D140" s="206"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="99" t="s">
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="173"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="G140" s="100"/>
+      <c r="G140" s="117"/>
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
       <c r="J140" s="33"/>
@@ -8346,24 +8346,24 @@
       <c r="N140" s="6"/>
       <c r="O140" s="46"/>
       <c r="P140" s="46"/>
-      <c r="Q140" s="79"/>
-      <c r="R140" s="80"/>
-      <c r="S140" s="80"/>
-      <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="V140" s="81"/>
+      <c r="Q140" s="143"/>
+      <c r="R140" s="144"/>
+      <c r="S140" s="144"/>
+      <c r="T140" s="144"/>
+      <c r="U140" s="144"/>
+      <c r="V140" s="145"/>
     </row>
     <row r="141" spans="2:22">
-      <c r="B141" s="187"/>
-      <c r="C141" s="187"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
       <c r="D141" s="19" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="19"/>
-      <c r="F141" s="101" t="s">
+      <c r="F141" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="G141" s="102"/>
+      <c r="G141" s="82"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -8375,24 +8375,24 @@
       <c r="N141" s="5"/>
       <c r="O141" s="45"/>
       <c r="P141" s="45"/>
-      <c r="Q141" s="76"/>
-      <c r="R141" s="77"/>
-      <c r="S141" s="77"/>
-      <c r="T141" s="77"/>
-      <c r="U141" s="77"/>
-      <c r="V141" s="78"/>
+      <c r="Q141" s="146"/>
+      <c r="R141" s="147"/>
+      <c r="S141" s="147"/>
+      <c r="T141" s="147"/>
+      <c r="U141" s="147"/>
+      <c r="V141" s="148"/>
     </row>
     <row r="142" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B142" s="187"/>
-      <c r="C142" s="187"/>
-      <c r="D142" s="207" t="s">
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="E142" s="210"/>
-      <c r="F142" s="224" t="s">
+      <c r="E142" s="177"/>
+      <c r="F142" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="225"/>
+      <c r="G142" s="159"/>
       <c r="H142" s="33"/>
       <c r="I142" s="33"/>
       <c r="J142" s="33"/>
@@ -8404,18 +8404,18 @@
       <c r="N142" s="6"/>
       <c r="O142" s="46"/>
       <c r="P142" s="46"/>
-      <c r="Q142" s="79"/>
-      <c r="R142" s="80"/>
-      <c r="S142" s="80"/>
-      <c r="T142" s="80"/>
-      <c r="U142" s="80"/>
-      <c r="V142" s="81"/>
+      <c r="Q142" s="143"/>
+      <c r="R142" s="144"/>
+      <c r="S142" s="144"/>
+      <c r="T142" s="144"/>
+      <c r="U142" s="144"/>
+      <c r="V142" s="145"/>
     </row>
     <row r="143" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B143" s="187"/>
-      <c r="C143" s="187"/>
-      <c r="D143" s="208"/>
-      <c r="E143" s="211"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="175"/>
+      <c r="E143" s="178"/>
       <c r="F143" s="32" t="s">
         <v>333</v>
       </c>
@@ -8433,18 +8433,18 @@
       <c r="N143" s="5"/>
       <c r="O143" s="45"/>
       <c r="P143" s="45"/>
-      <c r="Q143" s="76"/>
-      <c r="R143" s="77"/>
-      <c r="S143" s="77"/>
-      <c r="T143" s="77"/>
-      <c r="U143" s="77"/>
-      <c r="V143" s="78"/>
+      <c r="Q143" s="146"/>
+      <c r="R143" s="147"/>
+      <c r="S143" s="147"/>
+      <c r="T143" s="147"/>
+      <c r="U143" s="147"/>
+      <c r="V143" s="148"/>
     </row>
     <row r="144" spans="2:22">
-      <c r="B144" s="187"/>
-      <c r="C144" s="187"/>
-      <c r="D144" s="208"/>
-      <c r="E144" s="211"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="175"/>
+      <c r="E144" s="178"/>
       <c r="F144" s="34" t="s">
         <v>333</v>
       </c>
@@ -8462,18 +8462,18 @@
       <c r="N144" s="6"/>
       <c r="O144" s="46"/>
       <c r="P144" s="46"/>
-      <c r="Q144" s="79"/>
-      <c r="R144" s="80"/>
-      <c r="S144" s="80"/>
-      <c r="T144" s="80"/>
-      <c r="U144" s="80"/>
-      <c r="V144" s="81"/>
+      <c r="Q144" s="143"/>
+      <c r="R144" s="144"/>
+      <c r="S144" s="144"/>
+      <c r="T144" s="144"/>
+      <c r="U144" s="144"/>
+      <c r="V144" s="145"/>
     </row>
     <row r="145" spans="2:22">
-      <c r="B145" s="187"/>
-      <c r="C145" s="187"/>
-      <c r="D145" s="208"/>
-      <c r="E145" s="211"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="175"/>
+      <c r="E145" s="178"/>
       <c r="F145" s="32" t="s">
         <v>333</v>
       </c>
@@ -8491,18 +8491,18 @@
       <c r="N145" s="5"/>
       <c r="O145" s="45"/>
       <c r="P145" s="45"/>
-      <c r="Q145" s="76"/>
-      <c r="R145" s="77"/>
-      <c r="S145" s="77"/>
-      <c r="T145" s="77"/>
-      <c r="U145" s="77"/>
-      <c r="V145" s="78"/>
+      <c r="Q145" s="146"/>
+      <c r="R145" s="147"/>
+      <c r="S145" s="147"/>
+      <c r="T145" s="147"/>
+      <c r="U145" s="147"/>
+      <c r="V145" s="148"/>
     </row>
     <row r="146" spans="2:22">
-      <c r="B146" s="187"/>
-      <c r="C146" s="187"/>
-      <c r="D146" s="208"/>
-      <c r="E146" s="211"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="175"/>
+      <c r="E146" s="178"/>
       <c r="F146" s="34" t="s">
         <v>333</v>
       </c>
@@ -8520,22 +8520,22 @@
       <c r="N146" s="6"/>
       <c r="O146" s="46"/>
       <c r="P146" s="46"/>
-      <c r="Q146" s="79"/>
-      <c r="R146" s="80"/>
-      <c r="S146" s="80"/>
-      <c r="T146" s="80"/>
-      <c r="U146" s="80"/>
-      <c r="V146" s="81"/>
+      <c r="Q146" s="143"/>
+      <c r="R146" s="144"/>
+      <c r="S146" s="144"/>
+      <c r="T146" s="144"/>
+      <c r="U146" s="144"/>
+      <c r="V146" s="145"/>
     </row>
     <row r="147" spans="2:22" ht="15" thickBot="1">
-      <c r="B147" s="232"/>
-      <c r="C147" s="232"/>
-      <c r="D147" s="209"/>
-      <c r="E147" s="212"/>
-      <c r="F147" s="226" t="s">
+      <c r="B147" s="90"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="176"/>
+      <c r="E147" s="179"/>
+      <c r="F147" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="G147" s="227"/>
+      <c r="G147" s="161"/>
       <c r="H147" s="56"/>
       <c r="I147" s="56"/>
       <c r="J147" s="56"/>
@@ -8547,105 +8547,105 @@
     </row>
     <row r="150" spans="2:22" ht="15" thickBot="1"/>
     <row r="151" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B151" s="219" t="s">
+      <c r="B151" s="139" t="s">
         <v>315</v>
       </c>
-      <c r="C151" s="220"/>
-      <c r="D151" s="220"/>
-      <c r="E151" s="220"/>
-      <c r="F151" s="220"/>
-      <c r="G151" s="220"/>
-      <c r="H151" s="220"/>
-      <c r="I151" s="220"/>
-      <c r="J151" s="220"/>
-      <c r="K151" s="220"/>
-      <c r="L151" s="220"/>
-      <c r="M151" s="220"/>
-      <c r="N151" s="221"/>
-      <c r="O151" s="221"/>
-      <c r="P151" s="221"/>
-      <c r="Q151" s="221"/>
-      <c r="R151" s="221"/>
-      <c r="S151" s="221"/>
-      <c r="T151" s="221"/>
-      <c r="U151" s="221"/>
-      <c r="V151" s="222"/>
+      <c r="C151" s="140"/>
+      <c r="D151" s="140"/>
+      <c r="E151" s="140"/>
+      <c r="F151" s="140"/>
+      <c r="G151" s="140"/>
+      <c r="H151" s="140"/>
+      <c r="I151" s="140"/>
+      <c r="J151" s="140"/>
+      <c r="K151" s="140"/>
+      <c r="L151" s="140"/>
+      <c r="M151" s="140"/>
+      <c r="N151" s="141"/>
+      <c r="O151" s="141"/>
+      <c r="P151" s="141"/>
+      <c r="Q151" s="141"/>
+      <c r="R151" s="141"/>
+      <c r="S151" s="141"/>
+      <c r="T151" s="141"/>
+      <c r="U151" s="141"/>
+      <c r="V151" s="142"/>
     </row>
     <row r="152" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B152" s="213" t="str">
+      <c r="B152" s="180" t="str">
         <f>附表!B12</f>
         <v/>
       </c>
-      <c r="C152" s="214"/>
-      <c r="D152" s="214"/>
-      <c r="E152" s="214"/>
-      <c r="F152" s="214"/>
-      <c r="G152" s="214"/>
-      <c r="H152" s="214"/>
-      <c r="I152" s="214"/>
-      <c r="J152" s="214"/>
-      <c r="K152" s="214"/>
-      <c r="L152" s="214"/>
-      <c r="M152" s="214"/>
-      <c r="N152" s="214"/>
-      <c r="O152" s="214"/>
-      <c r="P152" s="214"/>
-      <c r="Q152" s="214"/>
-      <c r="R152" s="214"/>
-      <c r="S152" s="214"/>
-      <c r="T152" s="214"/>
-      <c r="U152" s="214"/>
-      <c r="V152" s="215"/>
+      <c r="C152" s="181"/>
+      <c r="D152" s="181"/>
+      <c r="E152" s="181"/>
+      <c r="F152" s="181"/>
+      <c r="G152" s="181"/>
+      <c r="H152" s="181"/>
+      <c r="I152" s="181"/>
+      <c r="J152" s="181"/>
+      <c r="K152" s="181"/>
+      <c r="L152" s="181"/>
+      <c r="M152" s="181"/>
+      <c r="N152" s="181"/>
+      <c r="O152" s="181"/>
+      <c r="P152" s="181"/>
+      <c r="Q152" s="181"/>
+      <c r="R152" s="181"/>
+      <c r="S152" s="181"/>
+      <c r="T152" s="181"/>
+      <c r="U152" s="181"/>
+      <c r="V152" s="182"/>
     </row>
     <row r="153" spans="2:22" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B153" s="216"/>
-      <c r="C153" s="217"/>
-      <c r="D153" s="217"/>
-      <c r="E153" s="217"/>
-      <c r="F153" s="217"/>
-      <c r="G153" s="217"/>
-      <c r="H153" s="217"/>
-      <c r="I153" s="217"/>
-      <c r="J153" s="217"/>
-      <c r="K153" s="217"/>
-      <c r="L153" s="217"/>
-      <c r="M153" s="217"/>
-      <c r="N153" s="217"/>
-      <c r="O153" s="217"/>
-      <c r="P153" s="217"/>
-      <c r="Q153" s="217"/>
-      <c r="R153" s="217"/>
-      <c r="S153" s="217"/>
-      <c r="T153" s="217"/>
-      <c r="U153" s="217"/>
-      <c r="V153" s="218"/>
+      <c r="B153" s="183"/>
+      <c r="C153" s="184"/>
+      <c r="D153" s="184"/>
+      <c r="E153" s="184"/>
+      <c r="F153" s="184"/>
+      <c r="G153" s="184"/>
+      <c r="H153" s="184"/>
+      <c r="I153" s="184"/>
+      <c r="J153" s="184"/>
+      <c r="K153" s="184"/>
+      <c r="L153" s="184"/>
+      <c r="M153" s="184"/>
+      <c r="N153" s="184"/>
+      <c r="O153" s="184"/>
+      <c r="P153" s="184"/>
+      <c r="Q153" s="184"/>
+      <c r="R153" s="184"/>
+      <c r="S153" s="184"/>
+      <c r="T153" s="184"/>
+      <c r="U153" s="184"/>
+      <c r="V153" s="185"/>
     </row>
     <row r="154" spans="2:22" ht="14.1" customHeight="1">
-      <c r="P154" s="194" t="s">
+      <c r="P154" s="162" t="s">
         <v>350</v>
       </c>
-      <c r="Q154" s="194"/>
-      <c r="R154" s="194"/>
-      <c r="S154" s="194"/>
-      <c r="T154" s="194"/>
-      <c r="U154" s="194"/>
-      <c r="V154" s="194"/>
+      <c r="Q154" s="162"/>
+      <c r="R154" s="162"/>
+      <c r="S154" s="162"/>
+      <c r="T154" s="162"/>
+      <c r="U154" s="162"/>
+      <c r="V154" s="162"/>
     </row>
     <row r="155" spans="2:22" ht="14.25" customHeight="1">
       <c r="B155" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C155" s="228" t="s">
+      <c r="C155" s="123" t="s">
         <v>349</v>
       </c>
-      <c r="D155" s="228"/>
-      <c r="E155" s="228"/>
-      <c r="F155" s="228"/>
-      <c r="G155" s="228"/>
-      <c r="H155" s="228"/>
-      <c r="I155" s="228"/>
-      <c r="J155" s="228"/>
-      <c r="K155" s="228"/>
+      <c r="D155" s="123"/>
+      <c r="E155" s="123"/>
+      <c r="F155" s="123"/>
+      <c r="G155" s="123"/>
+      <c r="H155" s="123"/>
+      <c r="I155" s="123"/>
+      <c r="J155" s="123"/>
+      <c r="K155" s="123"/>
       <c r="L155" s="52"/>
       <c r="M155" s="52"/>
       <c r="N155" s="52"/>
@@ -8784,6 +8784,305 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="323">
+    <mergeCell ref="Q145:V145"/>
+    <mergeCell ref="Q146:V146"/>
+    <mergeCell ref="Q132:V132"/>
+    <mergeCell ref="Q133:V133"/>
+    <mergeCell ref="Q134:V134"/>
+    <mergeCell ref="Q135:V135"/>
+    <mergeCell ref="Q136:V136"/>
+    <mergeCell ref="Q137:V137"/>
+    <mergeCell ref="Q138:V138"/>
+    <mergeCell ref="Q139:V139"/>
+    <mergeCell ref="Q140:V140"/>
+    <mergeCell ref="Q123:V123"/>
+    <mergeCell ref="Q124:V124"/>
+    <mergeCell ref="Q125:V125"/>
+    <mergeCell ref="Q126:V126"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Q144:V144"/>
+    <mergeCell ref="Q120:V120"/>
+    <mergeCell ref="Q121:V121"/>
+    <mergeCell ref="Q122:V122"/>
+    <mergeCell ref="Q117:V117"/>
+    <mergeCell ref="O81:V82"/>
+    <mergeCell ref="O83:V84"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N48:V48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="E72:E81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="O75:V76"/>
+    <mergeCell ref="O77:V78"/>
+    <mergeCell ref="O79:V80"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="S57:V57"/>
+    <mergeCell ref="S56:V56"/>
+    <mergeCell ref="S55:V55"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="O89:V90"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="P2:S11"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B11:N12"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="O87:V88"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="P154:V154"/>
+    <mergeCell ref="N91:V108"/>
+    <mergeCell ref="Q112:V112"/>
+    <mergeCell ref="Q113:V113"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D103:D128"/>
+    <mergeCell ref="E103:E128"/>
+    <mergeCell ref="D130:D136"/>
+    <mergeCell ref="E130:E136"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="E142:E147"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="B152:V153"/>
+    <mergeCell ref="Q127:V127"/>
+    <mergeCell ref="Q128:V128"/>
+    <mergeCell ref="Q129:V129"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="Q131:V131"/>
+    <mergeCell ref="Q141:V141"/>
+    <mergeCell ref="Q142:V142"/>
+    <mergeCell ref="Q143:V143"/>
+    <mergeCell ref="B151:V151"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="Q114:V114"/>
+    <mergeCell ref="Q115:V115"/>
+    <mergeCell ref="Q116:V116"/>
+    <mergeCell ref="N110:V110"/>
+    <mergeCell ref="Q111:V111"/>
+    <mergeCell ref="O85:V86"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q119:V119"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="C155:K155"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
@@ -8808,305 +9107,6 @@
     <mergeCell ref="C70:C99"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="C155:K155"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="B151:V151"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="Q114:V114"/>
-    <mergeCell ref="Q115:V115"/>
-    <mergeCell ref="Q116:V116"/>
-    <mergeCell ref="N110:V110"/>
-    <mergeCell ref="Q111:V111"/>
-    <mergeCell ref="O85:V86"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="Q119:V119"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="P154:V154"/>
-    <mergeCell ref="N91:V108"/>
-    <mergeCell ref="Q112:V112"/>
-    <mergeCell ref="Q113:V113"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D103:D128"/>
-    <mergeCell ref="E103:E128"/>
-    <mergeCell ref="D130:D136"/>
-    <mergeCell ref="E130:E136"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="E142:E147"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="B152:V153"/>
-    <mergeCell ref="Q127:V127"/>
-    <mergeCell ref="Q128:V128"/>
-    <mergeCell ref="Q129:V129"/>
-    <mergeCell ref="Q130:V130"/>
-    <mergeCell ref="Q131:V131"/>
-    <mergeCell ref="Q141:V141"/>
-    <mergeCell ref="Q142:V142"/>
-    <mergeCell ref="Q143:V143"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:N12"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="O87:V88"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="P2:S11"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="O89:V90"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="S57:V57"/>
-    <mergeCell ref="S56:V56"/>
-    <mergeCell ref="S55:V55"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="E72:E81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="O75:V76"/>
-    <mergeCell ref="O77:V78"/>
-    <mergeCell ref="O79:V80"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="S58:V58"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N48:V48"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="Q123:V123"/>
-    <mergeCell ref="Q124:V124"/>
-    <mergeCell ref="Q125:V125"/>
-    <mergeCell ref="Q126:V126"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="Q144:V144"/>
-    <mergeCell ref="Q120:V120"/>
-    <mergeCell ref="Q121:V121"/>
-    <mergeCell ref="Q122:V122"/>
-    <mergeCell ref="Q117:V117"/>
-    <mergeCell ref="O81:V82"/>
-    <mergeCell ref="O83:V84"/>
-    <mergeCell ref="Q145:V145"/>
-    <mergeCell ref="Q146:V146"/>
-    <mergeCell ref="Q132:V132"/>
-    <mergeCell ref="Q133:V133"/>
-    <mergeCell ref="Q134:V134"/>
-    <mergeCell ref="Q135:V135"/>
-    <mergeCell ref="Q136:V136"/>
-    <mergeCell ref="Q137:V137"/>
-    <mergeCell ref="Q138:V138"/>
-    <mergeCell ref="Q139:V139"/>
-    <mergeCell ref="Q140:V140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K15:K147">
@@ -9174,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF90821A-E269-48AC-9C35-E7364BF49A7B}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9190,16 +9190,16 @@
       <c r="A1" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="241" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="65">
@@ -9258,7 +9258,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="65">
+      <c r="A4" s="24">
         <f>10^(A2/2)</f>
         <v>1000</v>
       </c>
@@ -9675,11 +9675,11 @@
         <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;IF(Skill1=100,"",NAME1&amp;Skill1)&amp;IF(Skill2=100,"",NAME2&amp;Skill2)&amp;IF(Skill3=100,"",NAME3&amp;Skill3)&amp;IF(Skill4=100,"",NAME4&amp;Skill4)&amp;IF(Skill5=100,"",NAME5&amp;Skill5)&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18&amp;A19&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A36&amp;A35&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50&amp;A51&amp;A52&amp;A53&amp;A54&amp;A55&amp;A56&amp;A57&amp;A58&amp;A59&amp;A60&amp;A61&amp;A62&amp;A63&amp;A64&amp;A65&amp;A66&amp;A67&amp;A68&amp;A69&amp;A70&amp;A71&amp;A72&amp;A73&amp;A74&amp;A75&amp;A76&amp;A77&amp;A78&amp;A79&amp;A80&amp;A82&amp;A81&amp;A83&amp;A84&amp;A85&amp;A86&amp;A87&amp;A88&amp;A89&amp;A90&amp;A91&amp;A92&amp;A93&amp;A94&amp;A95&amp;A96&amp;A97&amp;A98&amp;A99&amp;A100&amp;A101&amp;A102&amp;A103&amp;A104&amp;A105&amp;A106&amp;A107&amp;A108&amp;A109&amp;A110&amp;A111&amp;A112&amp;A113&amp;A114&amp;A115&amp;A116&amp;A117&amp;A118&amp;A119&amp;A120&amp;A121&amp;A122&amp;A123&amp;A124&amp;A125&amp;A126&amp;A127&amp;A128&amp;A129&amp;A130&amp;A131&amp;A132&amp;A133&amp;A134&amp;A135&amp;A136&amp;A137&amp;A138&amp;A139&amp;A140&amp;A141&amp;A142&amp;A143</f>
         <v/>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="str">
@@ -9849,10 +9849,10 @@
         <f>IF(人物卡!K18=0,"",人物卡!F18&amp;人物卡!K18)</f>
         <v/>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="E15" s="216" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="174"/>
+      <c r="F15" s="216"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="str">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="F2" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>421</v>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="J2" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>432</v>
@@ -11599,21 +11599,21 @@
       </c>
       <c r="F3" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H3" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>425</v>
       </c>
       <c r="J3" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11635,14 +11635,14 @@
       </c>
       <c r="H4" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>428</v>
       </c>
       <c r="J4" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11668,21 +11668,21 @@
       </c>
       <c r="F6" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H6" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J6" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+6)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="F7" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>424</v>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="J7" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11732,14 +11732,14 @@
       </c>
       <c r="H8" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J8" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -11772,14 +11772,14 @@
       </c>
       <c r="H10" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J10" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11794,21 +11794,21 @@
       </c>
       <c r="F11" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H11" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J11" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -11823,21 +11823,21 @@
       </c>
       <c r="F12" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H12" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J12" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -11849,21 +11849,21 @@
       </c>
       <c r="F14" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+15)</f>
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H14" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+10)</f>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J14" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -11872,21 +11872,21 @@
       </c>
       <c r="F15" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+12)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H15" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+14)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J15" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+10)</f>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -11895,21 +11895,21 @@
       </c>
       <c r="F16" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+12)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H16" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J16" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:10">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="F18" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>151</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="J18" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="4:10">
@@ -11944,21 +11944,21 @@
       </c>
       <c r="F19" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H19" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J19" s="6">
         <f ca="1">5*(RANDBETWEEN(1,8)+RANDBETWEEN(1,8)+RANDBETWEEN(1,8)-3)</f>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="4:10">
@@ -11967,21 +11967,21 @@
       </c>
       <c r="F20" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)-3)</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H20" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J20" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="4:10">
@@ -11993,21 +11993,21 @@
       </c>
       <c r="F22" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+18)</f>
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+15)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+18)</f>
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="4:10">
@@ -12016,21 +12016,21 @@
       </c>
       <c r="F23" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H23" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J23" s="6">
         <f ca="1">5*(RANDBETWEEN(1,8)+RANDBETWEEN(1,8)+RANDBETWEEN(1,8)-3)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:10">
@@ -12039,21 +12039,21 @@
       </c>
       <c r="F24" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+3)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H24" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="4:10">
@@ -12065,21 +12065,21 @@
       </c>
       <c r="F26" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H26" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I26" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J26" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="4:10">
@@ -12088,21 +12088,21 @@
       </c>
       <c r="F27" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+3)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H27" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J27" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="4:10">
@@ -12118,14 +12118,14 @@
       </c>
       <c r="H28" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J28" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="4:10">
@@ -12137,21 +12137,21 @@
       </c>
       <c r="F30" s="24">
         <f ca="1">5*(RANDBETWEEN(1,8)+RANDBETWEEN(1,8)+RANDBETWEEN(1,8))</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H30" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J30" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="4:10">
@@ -12160,21 +12160,21 @@
       </c>
       <c r="F31" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H31" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J31" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="4:10">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="F32" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>156</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="J32" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="4:10">
@@ -12209,21 +12209,21 @@
       </c>
       <c r="F34" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H34" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I34" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J34" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="4:10">
@@ -12239,14 +12239,14 @@
       </c>
       <c r="H35" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J35" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="4:10">
@@ -12255,21 +12255,21 @@
       </c>
       <c r="F36" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+12)</f>
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J36" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="4:10">
@@ -12281,21 +12281,21 @@
       </c>
       <c r="F38" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H38" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I38" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J38" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+12)</f>
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="4:10">
@@ -12304,21 +12304,21 @@
       </c>
       <c r="F39" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H39" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J39" s="6">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+10)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="4:10">
@@ -12327,21 +12327,21 @@
       </c>
       <c r="F40" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+9)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H40" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J40" s="24">
         <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
